--- a/Resource/import.xlsx
+++ b/Resource/import.xlsx
@@ -11,12 +11,15 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$AN$105</definedName>
+  </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1560" uniqueCount="372">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1476" uniqueCount="348">
   <si>
     <t>STT</t>
   </si>
@@ -162,24 +165,6 @@
     <t>07/10/2021</t>
   </si>
   <si>
-    <t>Hồ Thị Thùy Dung</t>
-  </si>
-  <si>
-    <t>03/08/1995</t>
-  </si>
-  <si>
-    <t>0983914436</t>
-  </si>
-  <si>
-    <t>230994001</t>
-  </si>
-  <si>
-    <t>Thị xã An Khê</t>
-  </si>
-  <si>
-    <t>Phường An Bình</t>
-  </si>
-  <si>
     <t>15/08/2021</t>
   </si>
   <si>
@@ -207,24 +192,6 @@
     <t>Xã Bờ Ngoong</t>
   </si>
   <si>
-    <t>Tống Duy Tân</t>
-  </si>
-  <si>
-    <t>20/08/1996</t>
-  </si>
-  <si>
-    <t>0869099381</t>
-  </si>
-  <si>
-    <t>231158728</t>
-  </si>
-  <si>
-    <t>Thành phố Pleiku</t>
-  </si>
-  <si>
-    <t>Phường Diên Hồng</t>
-  </si>
-  <si>
     <t>Huỳnh Đức Hậu</t>
   </si>
   <si>
@@ -573,24 +540,6 @@
     <t>231386205</t>
   </si>
   <si>
-    <t>Trần Thị Vân</t>
-  </si>
-  <si>
-    <t>28/05/1994</t>
-  </si>
-  <si>
-    <t>0332850213</t>
-  </si>
-  <si>
-    <t>194505741</t>
-  </si>
-  <si>
-    <t>Huyện Chư Prông</t>
-  </si>
-  <si>
-    <t>Xã Ia Vê</t>
-  </si>
-  <si>
     <t>Lê Thị Hồng Thảo</t>
   </si>
   <si>
@@ -604,24 +553,6 @@
   </si>
   <si>
     <t>Xã AYun</t>
-  </si>
-  <si>
-    <t>Nguyễn Thị Hà</t>
-  </si>
-  <si>
-    <t>09/08/1991</t>
-  </si>
-  <si>
-    <t>0367449169</t>
-  </si>
-  <si>
-    <t>230753788</t>
-  </si>
-  <si>
-    <t>Huyện Chư Pưh</t>
-  </si>
-  <si>
-    <t>Xã Ia Hla</t>
   </si>
   <si>
     <t>Nguyễn Thị Xuân Hiền</t>
@@ -1562,15 +1493,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AN111"/>
+  <dimension ref="A1:AN105"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD3"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="T7" sqref="T7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12" customWidth="1"/>
+    <col min="1" max="1" width="6.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.5703125" customWidth="1"/>
     <col min="3" max="3" width="31.42578125" customWidth="1"/>
     <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
@@ -1757,7 +1688,7 @@
     </row>
     <row r="3" spans="1:40" s="14" customFormat="1" ht="39.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
-        <f t="shared" ref="A3:A34" si="0" xml:space="preserve"> A2 + 1</f>
+        <f t="shared" ref="A3:A66" si="0" xml:space="preserve"> A2 + 1</f>
         <v>2</v>
       </c>
       <c r="B3" s="7">
@@ -2001,26 +1932,26 @@
         <v>64007</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="G6" s="9"/>
       <c r="H6" s="9" t="s">
         <v>23</v>
       </c>
       <c r="I6" s="9" t="s">
-        <v>52</v>
+        <v>24</v>
       </c>
       <c r="J6" s="9" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="K6" s="9"/>
       <c r="L6" s="10" t="s">
@@ -2030,10 +1961,10 @@
         <v>36</v>
       </c>
       <c r="N6" s="10" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="O6" s="9" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="P6" s="11">
         <v>64007</v>
@@ -2042,10 +1973,10 @@
         <v>36</v>
       </c>
       <c r="R6" s="10" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="S6" s="10" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="T6" s="11">
         <v>64007</v>
@@ -2071,7 +2002,7 @@
       <c r="AM6" s="12"/>
       <c r="AN6" s="13"/>
     </row>
-    <row r="7" spans="1:40" s="14" customFormat="1" ht="26.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:40" s="14" customFormat="1" ht="39.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -2080,18 +2011,20 @@
         <v>64007</v>
       </c>
       <c r="C7" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="D7" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="E7" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="E7" s="10" t="s">
+      <c r="F7" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="F7" s="9" t="s">
+      <c r="G7" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="G7" s="9"/>
       <c r="H7" s="9" t="s">
         <v>23</v>
       </c>
@@ -2099,32 +2032,32 @@
         <v>24</v>
       </c>
       <c r="J7" s="9" t="s">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="K7" s="9"/>
       <c r="L7" s="10" t="s">
         <v>26</v>
       </c>
       <c r="M7" s="9" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="N7" s="10" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="O7" s="9" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="P7" s="11">
         <v>64007</v>
       </c>
       <c r="Q7" s="9" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="R7" s="10" t="s">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="S7" s="10" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="T7" s="11">
         <v>64007</v>
@@ -2159,51 +2092,53 @@
         <v>64007</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="G8" s="9"/>
+        <v>69</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>70</v>
+      </c>
       <c r="H8" s="9" t="s">
         <v>23</v>
       </c>
       <c r="I8" s="9" t="s">
-        <v>67</v>
+        <v>24</v>
       </c>
       <c r="J8" s="9" t="s">
-        <v>68</v>
+        <v>35</v>
       </c>
       <c r="K8" s="9"/>
       <c r="L8" s="10" t="s">
         <v>26</v>
       </c>
       <c r="M8" s="9" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="N8" s="10" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="O8" s="9" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="P8" s="11">
         <v>64007</v>
       </c>
       <c r="Q8" s="9" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="R8" s="10" t="s">
-        <v>56</v>
+        <v>73</v>
       </c>
       <c r="S8" s="10" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="T8" s="11">
         <v>64007</v>
@@ -2229,7 +2164,7 @@
       <c r="AM8" s="12"/>
       <c r="AN8" s="13"/>
     </row>
-    <row r="9" spans="1:40" s="14" customFormat="1" ht="39.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:40" s="14" customFormat="1" ht="26.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -2238,19 +2173,19 @@
         <v>64007</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="H9" s="9" t="s">
         <v>23</v>
@@ -2266,25 +2201,25 @@
         <v>26</v>
       </c>
       <c r="M9" s="9" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="N9" s="10" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="O9" s="9" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="P9" s="11">
         <v>64007</v>
       </c>
       <c r="Q9" s="9" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="R9" s="10" t="s">
         <v>30</v>
       </c>
       <c r="S9" s="10" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="T9" s="11">
         <v>64007</v>
@@ -2319,19 +2254,19 @@
         <v>64007</v>
       </c>
       <c r="C10" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="G10" s="9" t="s">
         <v>78</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="E10" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="F10" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="G10" s="9" t="s">
-        <v>82</v>
       </c>
       <c r="H10" s="9" t="s">
         <v>23</v>
@@ -2347,25 +2282,25 @@
         <v>26</v>
       </c>
       <c r="M10" s="9" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="N10" s="10" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="O10" s="9" t="s">
-        <v>84</v>
+        <v>64</v>
       </c>
       <c r="P10" s="11">
         <v>64007</v>
       </c>
       <c r="Q10" s="9" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="R10" s="10" t="s">
-        <v>85</v>
+        <v>30</v>
       </c>
       <c r="S10" s="10" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="T10" s="11">
         <v>64007</v>
@@ -2400,19 +2335,19 @@
         <v>64007</v>
       </c>
       <c r="C11" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="E11" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="D11" s="9" t="s">
+      <c r="F11" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="E11" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="F11" s="9" t="s">
-        <v>89</v>
-      </c>
       <c r="G11" s="9" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="H11" s="9" t="s">
         <v>23</v>
@@ -2428,25 +2363,25 @@
         <v>26</v>
       </c>
       <c r="M11" s="9" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="N11" s="10" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="O11" s="9" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="P11" s="11">
         <v>64007</v>
       </c>
       <c r="Q11" s="9" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="R11" s="10" t="s">
         <v>30</v>
       </c>
       <c r="S11" s="10" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="T11" s="11">
         <v>64007</v>
@@ -2481,19 +2416,17 @@
         <v>64007</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="F12" s="9" t="s">
-        <v>95</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="F12" s="9"/>
       <c r="G12" s="9" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H12" s="9" t="s">
         <v>23</v>
@@ -2509,25 +2442,25 @@
         <v>26</v>
       </c>
       <c r="M12" s="9" t="s">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="N12" s="10" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="O12" s="9" t="s">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="P12" s="11">
         <v>64007</v>
       </c>
       <c r="Q12" s="9" t="s">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="R12" s="10" t="s">
-        <v>30</v>
+        <v>94</v>
       </c>
       <c r="S12" s="10" t="s">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="T12" s="11">
         <v>64007</v>
@@ -2562,19 +2495,19 @@
         <v>64007</v>
       </c>
       <c r="C13" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="D13" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="D13" s="9" t="s">
+      <c r="E13" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="E13" s="10" t="s">
+      <c r="F13" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="F13" s="9" t="s">
+      <c r="G13" s="9" t="s">
         <v>99</v>
-      </c>
-      <c r="G13" s="9" t="s">
-        <v>90</v>
       </c>
       <c r="H13" s="9" t="s">
         <v>23</v>
@@ -2590,25 +2523,25 @@
         <v>26</v>
       </c>
       <c r="M13" s="9" t="s">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="N13" s="10" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="O13" s="9" t="s">
-        <v>76</v>
+        <v>101</v>
       </c>
       <c r="P13" s="11">
         <v>64007</v>
       </c>
       <c r="Q13" s="9" t="s">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="R13" s="10" t="s">
-        <v>30</v>
+        <v>102</v>
       </c>
       <c r="S13" s="10" t="s">
-        <v>77</v>
+        <v>51</v>
       </c>
       <c r="T13" s="11">
         <v>64007</v>
@@ -2643,17 +2576,19 @@
         <v>64007</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="F14" s="9"/>
+        <v>105</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>106</v>
+      </c>
       <c r="G14" s="9" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="H14" s="9" t="s">
         <v>23</v>
@@ -2672,10 +2607,10 @@
         <v>36</v>
       </c>
       <c r="N14" s="10" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="O14" s="9" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="P14" s="11">
         <v>64007</v>
@@ -2684,10 +2619,10 @@
         <v>36</v>
       </c>
       <c r="R14" s="10" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="S14" s="10" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="T14" s="11">
         <v>64007</v>
@@ -2722,19 +2657,19 @@
         <v>64007</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="G15" s="9" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="H15" s="9" t="s">
         <v>23</v>
@@ -2747,32 +2682,22 @@
       </c>
       <c r="K15" s="9"/>
       <c r="L15" s="10" t="s">
-        <v>26</v>
+        <v>113</v>
       </c>
       <c r="M15" s="9" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="N15" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="O15" s="9" t="s">
-        <v>113</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="O15" s="9"/>
       <c r="P15" s="11">
         <v>64007</v>
       </c>
-      <c r="Q15" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="R15" s="10" t="s">
-        <v>114</v>
-      </c>
-      <c r="S15" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="T15" s="11">
-        <v>64007</v>
-      </c>
+      <c r="Q15" s="9"/>
+      <c r="R15" s="10"/>
+      <c r="S15" s="10"/>
+      <c r="T15" s="10"/>
       <c r="U15" s="9"/>
       <c r="V15" s="12"/>
       <c r="W15" s="13"/>
@@ -2814,17 +2739,15 @@
       <c r="F16" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="G16" s="9" t="s">
+      <c r="G16" s="9"/>
+      <c r="H16" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="I16" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="J16" s="9" t="s">
         <v>119</v>
-      </c>
-      <c r="H16" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="I16" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="J16" s="9" t="s">
-        <v>35</v>
       </c>
       <c r="K16" s="9"/>
       <c r="L16" s="10" t="s">
@@ -2834,10 +2757,10 @@
         <v>36</v>
       </c>
       <c r="N16" s="10" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="O16" s="9" t="s">
-        <v>113</v>
+        <v>46</v>
       </c>
       <c r="P16" s="11">
         <v>64007</v>
@@ -2846,10 +2769,10 @@
         <v>36</v>
       </c>
       <c r="R16" s="10" t="s">
-        <v>114</v>
+        <v>39</v>
       </c>
       <c r="S16" s="10" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="T16" s="11">
         <v>64007</v>
@@ -2884,20 +2807,18 @@
         <v>64007</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F17" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="G17" s="9" t="s">
         <v>124</v>
       </c>
+      <c r="G17" s="9"/>
       <c r="H17" s="9" t="s">
         <v>23</v>
       </c>
@@ -2905,26 +2826,36 @@
         <v>24</v>
       </c>
       <c r="J17" s="9" t="s">
-        <v>35</v>
+        <v>125</v>
       </c>
       <c r="K17" s="9"/>
       <c r="L17" s="10" t="s">
-        <v>125</v>
+        <v>26</v>
       </c>
       <c r="M17" s="9" t="s">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="N17" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="O17" s="9"/>
+        <v>120</v>
+      </c>
+      <c r="O17" s="9" t="s">
+        <v>46</v>
+      </c>
       <c r="P17" s="11">
         <v>64007</v>
       </c>
-      <c r="Q17" s="9"/>
-      <c r="R17" s="10"/>
-      <c r="S17" s="10"/>
-      <c r="T17" s="10"/>
+      <c r="Q17" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="R17" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="S17" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="T17" s="11">
+        <v>64007</v>
+      </c>
       <c r="U17" s="9"/>
       <c r="V17" s="12"/>
       <c r="W17" s="13"/>
@@ -2955,16 +2886,16 @@
         <v>64007</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="F18" s="9" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="G18" s="9"/>
       <c r="H18" s="9" t="s">
@@ -2974,7 +2905,7 @@
         <v>24</v>
       </c>
       <c r="J18" s="9" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="K18" s="9"/>
       <c r="L18" s="10" t="s">
@@ -2984,7 +2915,7 @@
         <v>36</v>
       </c>
       <c r="N18" s="10" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="O18" s="9" t="s">
         <v>46</v>
@@ -2993,13 +2924,13 @@
         <v>64007</v>
       </c>
       <c r="Q18" s="9" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="R18" s="10" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="S18" s="10" t="s">
-        <v>57</v>
+        <v>29</v>
       </c>
       <c r="T18" s="11">
         <v>64007</v>
@@ -3034,16 +2965,16 @@
         <v>64007</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="E19" s="10" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="F19" s="9" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="G19" s="9"/>
       <c r="H19" s="9" t="s">
@@ -3053,7 +2984,7 @@
         <v>24</v>
       </c>
       <c r="J19" s="9" t="s">
-        <v>137</v>
+        <v>119</v>
       </c>
       <c r="K19" s="9"/>
       <c r="L19" s="10" t="s">
@@ -3063,7 +2994,7 @@
         <v>36</v>
       </c>
       <c r="N19" s="10" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="O19" s="9" t="s">
         <v>46</v>
@@ -3113,16 +3044,16 @@
         <v>64007</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="E20" s="10" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="F20" s="9" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="G20" s="9"/>
       <c r="H20" s="9" t="s">
@@ -3132,7 +3063,7 @@
         <v>24</v>
       </c>
       <c r="J20" s="9" t="s">
-        <v>137</v>
+        <v>119</v>
       </c>
       <c r="K20" s="9"/>
       <c r="L20" s="10" t="s">
@@ -3142,7 +3073,7 @@
         <v>36</v>
       </c>
       <c r="N20" s="10" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="O20" s="9" t="s">
         <v>46</v>
@@ -3192,16 +3123,16 @@
         <v>64007</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="E21" s="10" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="F21" s="9" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="G21" s="9"/>
       <c r="H21" s="9" t="s">
@@ -3211,7 +3142,7 @@
         <v>24</v>
       </c>
       <c r="J21" s="9" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="K21" s="9"/>
       <c r="L21" s="10" t="s">
@@ -3221,7 +3152,7 @@
         <v>36</v>
       </c>
       <c r="N21" s="10" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="O21" s="9" t="s">
         <v>46</v>
@@ -3271,16 +3202,16 @@
         <v>64007</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="E22" s="10" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="F22" s="9" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="G22" s="9"/>
       <c r="H22" s="9" t="s">
@@ -3290,7 +3221,7 @@
         <v>24</v>
       </c>
       <c r="J22" s="9" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="K22" s="9"/>
       <c r="L22" s="10" t="s">
@@ -3300,7 +3231,7 @@
         <v>36</v>
       </c>
       <c r="N22" s="10" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="O22" s="9" t="s">
         <v>46</v>
@@ -3350,16 +3281,16 @@
         <v>64007</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="E23" s="10" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="F23" s="9" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="G23" s="9"/>
       <c r="H23" s="9" t="s">
@@ -3369,7 +3300,7 @@
         <v>24</v>
       </c>
       <c r="J23" s="9" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="K23" s="9"/>
       <c r="L23" s="10" t="s">
@@ -3379,7 +3310,7 @@
         <v>36</v>
       </c>
       <c r="N23" s="10" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="O23" s="9" t="s">
         <v>46</v>
@@ -3429,16 +3360,16 @@
         <v>64007</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="E24" s="10" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="F24" s="9" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="G24" s="9"/>
       <c r="H24" s="9" t="s">
@@ -3448,7 +3379,7 @@
         <v>24</v>
       </c>
       <c r="J24" s="9" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="K24" s="9"/>
       <c r="L24" s="10" t="s">
@@ -3458,7 +3389,7 @@
         <v>36</v>
       </c>
       <c r="N24" s="10" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="O24" s="9" t="s">
         <v>46</v>
@@ -3508,16 +3439,16 @@
         <v>64007</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="E25" s="10" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="F25" s="9" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="G25" s="9"/>
       <c r="H25" s="9" t="s">
@@ -3527,7 +3458,7 @@
         <v>24</v>
       </c>
       <c r="J25" s="9" t="s">
-        <v>150</v>
+        <v>35</v>
       </c>
       <c r="K25" s="9"/>
       <c r="L25" s="10" t="s">
@@ -3537,10 +3468,10 @@
         <v>36</v>
       </c>
       <c r="N25" s="10" t="s">
-        <v>132</v>
+        <v>37</v>
       </c>
       <c r="O25" s="9" t="s">
-        <v>46</v>
+        <v>143</v>
       </c>
       <c r="P25" s="11">
         <v>64007</v>
@@ -3587,16 +3518,16 @@
         <v>64007</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="E26" s="10" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="F26" s="9" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="G26" s="9"/>
       <c r="H26" s="9" t="s">
@@ -3606,7 +3537,7 @@
         <v>24</v>
       </c>
       <c r="J26" s="9" t="s">
-        <v>150</v>
+        <v>35</v>
       </c>
       <c r="K26" s="9"/>
       <c r="L26" s="10" t="s">
@@ -3616,10 +3547,10 @@
         <v>36</v>
       </c>
       <c r="N26" s="10" t="s">
-        <v>132</v>
+        <v>37</v>
       </c>
       <c r="O26" s="9" t="s">
-        <v>46</v>
+        <v>143</v>
       </c>
       <c r="P26" s="11">
         <v>64007</v>
@@ -3666,16 +3597,16 @@
         <v>64007</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="E27" s="10" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="F27" s="9" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="G27" s="9"/>
       <c r="H27" s="9" t="s">
@@ -3698,7 +3629,7 @@
         <v>37</v>
       </c>
       <c r="O27" s="9" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="P27" s="11">
         <v>64007</v>
@@ -3707,7 +3638,7 @@
         <v>27</v>
       </c>
       <c r="R27" s="10" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="S27" s="10" t="s">
         <v>29</v>
@@ -3745,16 +3676,16 @@
         <v>64007</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="E28" s="10" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="F28" s="9" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="G28" s="9"/>
       <c r="H28" s="9" t="s">
@@ -3777,7 +3708,7 @@
         <v>37</v>
       </c>
       <c r="O28" s="9" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="P28" s="11">
         <v>64007</v>
@@ -3786,7 +3717,7 @@
         <v>27</v>
       </c>
       <c r="R28" s="10" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="S28" s="10" t="s">
         <v>29</v>
@@ -3824,16 +3755,16 @@
         <v>64007</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="E29" s="10" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="F29" s="9" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="G29" s="9"/>
       <c r="H29" s="9" t="s">
@@ -3856,7 +3787,7 @@
         <v>37</v>
       </c>
       <c r="O29" s="9" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="P29" s="11">
         <v>64007</v>
@@ -3903,16 +3834,16 @@
         <v>64007</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="E30" s="10" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="F30" s="9" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="G30" s="9"/>
       <c r="H30" s="9" t="s">
@@ -3935,7 +3866,7 @@
         <v>37</v>
       </c>
       <c r="O30" s="9" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="P30" s="11">
         <v>64007</v>
@@ -3982,16 +3913,16 @@
         <v>64007</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="E31" s="10" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="F31" s="9" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="G31" s="9"/>
       <c r="H31" s="9" t="s">
@@ -4014,7 +3945,7 @@
         <v>37</v>
       </c>
       <c r="O31" s="9" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="P31" s="11">
         <v>64007</v>
@@ -4061,16 +3992,16 @@
         <v>64007</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="E32" s="10" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="F32" s="9" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="G32" s="9"/>
       <c r="H32" s="9" t="s">
@@ -4093,7 +4024,7 @@
         <v>37</v>
       </c>
       <c r="O32" s="9" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="P32" s="11">
         <v>64007</v>
@@ -4140,16 +4071,16 @@
         <v>64007</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="E33" s="10" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="F33" s="9" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="G33" s="9"/>
       <c r="H33" s="9" t="s">
@@ -4172,7 +4103,7 @@
         <v>37</v>
       </c>
       <c r="O33" s="9" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="P33" s="11">
         <v>64007</v>
@@ -4219,16 +4150,16 @@
         <v>64007</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="E34" s="10" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="F34" s="9" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="G34" s="9"/>
       <c r="H34" s="9" t="s">
@@ -4251,7 +4182,7 @@
         <v>37</v>
       </c>
       <c r="O34" s="9" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="P34" s="11">
         <v>64007</v>
@@ -4291,23 +4222,23 @@
     </row>
     <row r="35" spans="1:40" s="14" customFormat="1" ht="26.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="6">
-        <f t="shared" ref="A35:A66" si="1" xml:space="preserve"> A34 + 1</f>
+        <f t="shared" si="0"/>
         <v>34</v>
       </c>
       <c r="B35" s="7">
         <v>64007</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="E35" s="10" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="F35" s="9" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="G35" s="9"/>
       <c r="H35" s="9" t="s">
@@ -4317,7 +4248,7 @@
         <v>24</v>
       </c>
       <c r="J35" s="9" t="s">
-        <v>35</v>
+        <v>164</v>
       </c>
       <c r="K35" s="9"/>
       <c r="L35" s="10" t="s">
@@ -4330,7 +4261,7 @@
         <v>37</v>
       </c>
       <c r="O35" s="9" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="P35" s="11">
         <v>64007</v>
@@ -4368,25 +4299,25 @@
       <c r="AM35" s="12"/>
       <c r="AN35" s="13"/>
     </row>
-    <row r="36" spans="1:40" s="14" customFormat="1" ht="26.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:40" s="14" customFormat="1" ht="39.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>35</v>
       </c>
       <c r="B36" s="7">
         <v>64007</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="E36" s="10" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="F36" s="9" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="G36" s="9"/>
       <c r="H36" s="9" t="s">
@@ -4396,7 +4327,7 @@
         <v>24</v>
       </c>
       <c r="J36" s="9" t="s">
-        <v>35</v>
+        <v>164</v>
       </c>
       <c r="K36" s="9"/>
       <c r="L36" s="10" t="s">
@@ -4409,7 +4340,7 @@
         <v>37</v>
       </c>
       <c r="O36" s="9" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="P36" s="11">
         <v>64007</v>
@@ -4449,23 +4380,23 @@
     </row>
     <row r="37" spans="1:40" s="14" customFormat="1" ht="26.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>36</v>
       </c>
       <c r="B37" s="7">
         <v>64007</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="E37" s="10" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="F37" s="9" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="G37" s="9"/>
       <c r="H37" s="9" t="s">
@@ -4475,7 +4406,7 @@
         <v>24</v>
       </c>
       <c r="J37" s="9" t="s">
-        <v>176</v>
+        <v>35</v>
       </c>
       <c r="K37" s="9"/>
       <c r="L37" s="10" t="s">
@@ -4488,7 +4419,7 @@
         <v>37</v>
       </c>
       <c r="O37" s="9" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="P37" s="11">
         <v>64007</v>
@@ -4526,25 +4457,25 @@
       <c r="AM37" s="12"/>
       <c r="AN37" s="13"/>
     </row>
-    <row r="38" spans="1:40" s="14" customFormat="1" ht="39.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:40" s="14" customFormat="1" ht="26.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>37</v>
       </c>
       <c r="B38" s="7">
         <v>64007</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="D38" s="9" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="E38" s="10" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="F38" s="9" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="G38" s="9"/>
       <c r="H38" s="9" t="s">
@@ -4554,7 +4485,7 @@
         <v>24</v>
       </c>
       <c r="J38" s="9" t="s">
-        <v>176</v>
+        <v>35</v>
       </c>
       <c r="K38" s="9"/>
       <c r="L38" s="10" t="s">
@@ -4567,7 +4498,7 @@
         <v>37</v>
       </c>
       <c r="O38" s="9" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="P38" s="11">
         <v>64007</v>
@@ -4605,25 +4536,25 @@
       <c r="AM38" s="12"/>
       <c r="AN38" s="13"/>
     </row>
-    <row r="39" spans="1:40" s="14" customFormat="1" ht="26.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:40" s="14" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>38</v>
       </c>
       <c r="B39" s="7">
         <v>64007</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="D39" s="9" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="E39" s="10" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="F39" s="9" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="G39" s="9"/>
       <c r="H39" s="9" t="s">
@@ -4646,7 +4577,7 @@
         <v>37</v>
       </c>
       <c r="O39" s="9" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="P39" s="11">
         <v>64007</v>
@@ -4686,23 +4617,23 @@
     </row>
     <row r="40" spans="1:40" s="14" customFormat="1" ht="26.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>39</v>
       </c>
       <c r="B40" s="7">
         <v>64007</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="D40" s="9" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="E40" s="10" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="F40" s="9" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="G40" s="9"/>
       <c r="H40" s="9" t="s">
@@ -4725,7 +4656,7 @@
         <v>37</v>
       </c>
       <c r="O40" s="9" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="P40" s="11">
         <v>64007</v>
@@ -4763,25 +4694,25 @@
       <c r="AM40" s="12"/>
       <c r="AN40" s="13"/>
     </row>
-    <row r="41" spans="1:40" s="14" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:40" s="14" customFormat="1" ht="26.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>40</v>
       </c>
       <c r="B41" s="7">
         <v>64007</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="D41" s="9" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="E41" s="10" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="F41" s="9" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="G41" s="9"/>
       <c r="H41" s="9" t="s">
@@ -4791,7 +4722,7 @@
         <v>24</v>
       </c>
       <c r="J41" s="9" t="s">
-        <v>35</v>
+        <v>177</v>
       </c>
       <c r="K41" s="9"/>
       <c r="L41" s="10" t="s">
@@ -4804,7 +4735,7 @@
         <v>37</v>
       </c>
       <c r="O41" s="9" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="P41" s="11">
         <v>64007</v>
@@ -4844,23 +4775,23 @@
     </row>
     <row r="42" spans="1:40" s="14" customFormat="1" ht="26.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>41</v>
       </c>
       <c r="B42" s="7">
         <v>64007</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="D42" s="9" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="E42" s="10" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="F42" s="9" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="G42" s="9"/>
       <c r="H42" s="9" t="s">
@@ -4870,7 +4801,7 @@
         <v>24</v>
       </c>
       <c r="J42" s="9" t="s">
-        <v>35</v>
+        <v>177</v>
       </c>
       <c r="K42" s="9"/>
       <c r="L42" s="10" t="s">
@@ -4883,7 +4814,7 @@
         <v>37</v>
       </c>
       <c r="O42" s="9" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="P42" s="11">
         <v>64007</v>
@@ -4923,33 +4854,33 @@
     </row>
     <row r="43" spans="1:40" s="14" customFormat="1" ht="26.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>42</v>
       </c>
       <c r="B43" s="7">
         <v>64007</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="D43" s="9" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="E43" s="10" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="F43" s="9" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="G43" s="9"/>
       <c r="H43" s="9" t="s">
         <v>23</v>
       </c>
       <c r="I43" s="9" t="s">
-        <v>189</v>
+        <v>24</v>
       </c>
       <c r="J43" s="9" t="s">
-        <v>190</v>
+        <v>35</v>
       </c>
       <c r="K43" s="9"/>
       <c r="L43" s="10" t="s">
@@ -4962,7 +4893,7 @@
         <v>37</v>
       </c>
       <c r="O43" s="9" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="P43" s="11">
         <v>64007</v>
@@ -5000,35 +4931,35 @@
       <c r="AM43" s="12"/>
       <c r="AN43" s="13"/>
     </row>
-    <row r="44" spans="1:40" s="14" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:40" s="14" customFormat="1" ht="26.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>43</v>
       </c>
       <c r="B44" s="7">
         <v>64007</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="D44" s="9" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="E44" s="10" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="F44" s="9" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="G44" s="9"/>
       <c r="H44" s="9" t="s">
         <v>23</v>
       </c>
       <c r="I44" s="9" t="s">
-        <v>189</v>
+        <v>24</v>
       </c>
       <c r="J44" s="9" t="s">
-        <v>190</v>
+        <v>35</v>
       </c>
       <c r="K44" s="9"/>
       <c r="L44" s="10" t="s">
@@ -5041,7 +4972,7 @@
         <v>37</v>
       </c>
       <c r="O44" s="9" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="P44" s="11">
         <v>64007</v>
@@ -5081,23 +5012,23 @@
     </row>
     <row r="45" spans="1:40" s="14" customFormat="1" ht="26.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>44</v>
       </c>
       <c r="B45" s="7">
         <v>64007</v>
       </c>
       <c r="C45" s="8" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="D45" s="9" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="E45" s="10" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="F45" s="9" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="G45" s="9"/>
       <c r="H45" s="9" t="s">
@@ -5107,7 +5038,7 @@
         <v>24</v>
       </c>
       <c r="J45" s="9" t="s">
-        <v>195</v>
+        <v>125</v>
       </c>
       <c r="K45" s="9"/>
       <c r="L45" s="10" t="s">
@@ -5120,7 +5051,7 @@
         <v>37</v>
       </c>
       <c r="O45" s="9" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="P45" s="11">
         <v>64007</v>
@@ -5160,23 +5091,23 @@
     </row>
     <row r="46" spans="1:40" s="14" customFormat="1" ht="26.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>45</v>
       </c>
       <c r="B46" s="7">
         <v>64007</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="D46" s="9" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="E46" s="10" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="F46" s="9" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="G46" s="9"/>
       <c r="H46" s="9" t="s">
@@ -5186,7 +5117,7 @@
         <v>24</v>
       </c>
       <c r="J46" s="9" t="s">
-        <v>195</v>
+        <v>125</v>
       </c>
       <c r="K46" s="9"/>
       <c r="L46" s="10" t="s">
@@ -5199,7 +5130,7 @@
         <v>37</v>
       </c>
       <c r="O46" s="9" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="P46" s="11">
         <v>64007</v>
@@ -5239,33 +5170,33 @@
     </row>
     <row r="47" spans="1:40" s="14" customFormat="1" ht="26.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>46</v>
       </c>
       <c r="B47" s="7">
         <v>64007</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="D47" s="9" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="E47" s="10" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="F47" s="9" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="G47" s="9"/>
       <c r="H47" s="9" t="s">
         <v>23</v>
       </c>
       <c r="I47" s="9" t="s">
-        <v>200</v>
+        <v>24</v>
       </c>
       <c r="J47" s="9" t="s">
-        <v>201</v>
+        <v>190</v>
       </c>
       <c r="K47" s="9"/>
       <c r="L47" s="10" t="s">
@@ -5278,7 +5209,7 @@
         <v>37</v>
       </c>
       <c r="O47" s="9" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="P47" s="11">
         <v>64007</v>
@@ -5318,33 +5249,33 @@
     </row>
     <row r="48" spans="1:40" s="14" customFormat="1" ht="26.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>47</v>
       </c>
       <c r="B48" s="7">
         <v>64007</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="D48" s="9" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="E48" s="10" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="F48" s="9" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="G48" s="9"/>
       <c r="H48" s="9" t="s">
         <v>23</v>
       </c>
       <c r="I48" s="9" t="s">
-        <v>200</v>
+        <v>24</v>
       </c>
       <c r="J48" s="9" t="s">
-        <v>201</v>
+        <v>190</v>
       </c>
       <c r="K48" s="9"/>
       <c r="L48" s="10" t="s">
@@ -5357,7 +5288,7 @@
         <v>37</v>
       </c>
       <c r="O48" s="9" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="P48" s="11">
         <v>64007</v>
@@ -5397,23 +5328,23 @@
     </row>
     <row r="49" spans="1:40" s="14" customFormat="1" ht="26.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>48</v>
       </c>
       <c r="B49" s="7">
         <v>64007</v>
       </c>
       <c r="C49" s="8" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
       <c r="D49" s="9" t="s">
-        <v>203</v>
+        <v>192</v>
       </c>
       <c r="E49" s="10" t="s">
-        <v>204</v>
+        <v>193</v>
       </c>
       <c r="F49" s="9" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="G49" s="9"/>
       <c r="H49" s="9" t="s">
@@ -5423,7 +5354,7 @@
         <v>24</v>
       </c>
       <c r="J49" s="9" t="s">
-        <v>35</v>
+        <v>190</v>
       </c>
       <c r="K49" s="9"/>
       <c r="L49" s="10" t="s">
@@ -5436,7 +5367,7 @@
         <v>37</v>
       </c>
       <c r="O49" s="9" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="P49" s="11">
         <v>64007</v>
@@ -5476,23 +5407,23 @@
     </row>
     <row r="50" spans="1:40" s="14" customFormat="1" ht="26.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>49</v>
       </c>
       <c r="B50" s="7">
         <v>64007</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
       <c r="D50" s="9" t="s">
-        <v>203</v>
+        <v>192</v>
       </c>
       <c r="E50" s="10" t="s">
-        <v>204</v>
+        <v>193</v>
       </c>
       <c r="F50" s="9" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="G50" s="9"/>
       <c r="H50" s="9" t="s">
@@ -5502,7 +5433,7 @@
         <v>24</v>
       </c>
       <c r="J50" s="9" t="s">
-        <v>35</v>
+        <v>190</v>
       </c>
       <c r="K50" s="9"/>
       <c r="L50" s="10" t="s">
@@ -5515,7 +5446,7 @@
         <v>37</v>
       </c>
       <c r="O50" s="9" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="P50" s="11">
         <v>64007</v>
@@ -5555,23 +5486,23 @@
     </row>
     <row r="51" spans="1:40" s="14" customFormat="1" ht="26.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>50</v>
       </c>
       <c r="B51" s="7">
         <v>64007</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>206</v>
+        <v>195</v>
       </c>
       <c r="D51" s="9" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="E51" s="10" t="s">
-        <v>208</v>
+        <v>197</v>
       </c>
       <c r="F51" s="9" t="s">
-        <v>209</v>
+        <v>198</v>
       </c>
       <c r="G51" s="9"/>
       <c r="H51" s="9" t="s">
@@ -5581,7 +5512,7 @@
         <v>24</v>
       </c>
       <c r="J51" s="9" t="s">
-        <v>137</v>
+        <v>199</v>
       </c>
       <c r="K51" s="9"/>
       <c r="L51" s="10" t="s">
@@ -5594,7 +5525,7 @@
         <v>37</v>
       </c>
       <c r="O51" s="9" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="P51" s="11">
         <v>64007</v>
@@ -5634,23 +5565,23 @@
     </row>
     <row r="52" spans="1:40" s="14" customFormat="1" ht="26.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>51</v>
       </c>
       <c r="B52" s="7">
         <v>64007</v>
       </c>
       <c r="C52" s="8" t="s">
-        <v>206</v>
+        <v>195</v>
       </c>
       <c r="D52" s="9" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="E52" s="10" t="s">
-        <v>208</v>
+        <v>197</v>
       </c>
       <c r="F52" s="9" t="s">
-        <v>209</v>
+        <v>198</v>
       </c>
       <c r="G52" s="9"/>
       <c r="H52" s="9" t="s">
@@ -5660,7 +5591,7 @@
         <v>24</v>
       </c>
       <c r="J52" s="9" t="s">
-        <v>137</v>
+        <v>199</v>
       </c>
       <c r="K52" s="9"/>
       <c r="L52" s="10" t="s">
@@ -5673,7 +5604,7 @@
         <v>37</v>
       </c>
       <c r="O52" s="9" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="P52" s="11">
         <v>64007</v>
@@ -5713,23 +5644,23 @@
     </row>
     <row r="53" spans="1:40" s="14" customFormat="1" ht="26.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>52</v>
       </c>
       <c r="B53" s="7">
         <v>64007</v>
       </c>
       <c r="C53" s="8" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="D53" s="9" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
       <c r="E53" s="10" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
       <c r="F53" s="9" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="G53" s="9"/>
       <c r="H53" s="9" t="s">
@@ -5739,7 +5670,7 @@
         <v>24</v>
       </c>
       <c r="J53" s="9" t="s">
-        <v>214</v>
+        <v>35</v>
       </c>
       <c r="K53" s="9"/>
       <c r="L53" s="10" t="s">
@@ -5752,7 +5683,7 @@
         <v>37</v>
       </c>
       <c r="O53" s="9" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="P53" s="11">
         <v>64007</v>
@@ -5792,23 +5723,23 @@
     </row>
     <row r="54" spans="1:40" s="14" customFormat="1" ht="26.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>53</v>
       </c>
       <c r="B54" s="7">
         <v>64007</v>
       </c>
       <c r="C54" s="8" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="D54" s="9" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
       <c r="E54" s="10" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
       <c r="F54" s="9" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="G54" s="9"/>
       <c r="H54" s="9" t="s">
@@ -5818,7 +5749,7 @@
         <v>24</v>
       </c>
       <c r="J54" s="9" t="s">
-        <v>214</v>
+        <v>35</v>
       </c>
       <c r="K54" s="9"/>
       <c r="L54" s="10" t="s">
@@ -5831,7 +5762,7 @@
         <v>37</v>
       </c>
       <c r="O54" s="9" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="P54" s="11">
         <v>64007</v>
@@ -5871,23 +5802,23 @@
     </row>
     <row r="55" spans="1:40" s="14" customFormat="1" ht="26.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>54</v>
       </c>
       <c r="B55" s="7">
         <v>64007</v>
       </c>
       <c r="C55" s="8" t="s">
-        <v>215</v>
+        <v>204</v>
       </c>
       <c r="D55" s="9" t="s">
-        <v>216</v>
+        <v>205</v>
       </c>
       <c r="E55" s="10" t="s">
-        <v>217</v>
+        <v>206</v>
       </c>
       <c r="F55" s="9" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="G55" s="9"/>
       <c r="H55" s="9" t="s">
@@ -5897,7 +5828,7 @@
         <v>24</v>
       </c>
       <c r="J55" s="9" t="s">
-        <v>214</v>
+        <v>35</v>
       </c>
       <c r="K55" s="9"/>
       <c r="L55" s="10" t="s">
@@ -5910,7 +5841,7 @@
         <v>37</v>
       </c>
       <c r="O55" s="9" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="P55" s="11">
         <v>64007</v>
@@ -5950,23 +5881,23 @@
     </row>
     <row r="56" spans="1:40" s="14" customFormat="1" ht="26.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>55</v>
       </c>
       <c r="B56" s="7">
         <v>64007</v>
       </c>
       <c r="C56" s="8" t="s">
-        <v>215</v>
+        <v>204</v>
       </c>
       <c r="D56" s="9" t="s">
-        <v>216</v>
+        <v>205</v>
       </c>
       <c r="E56" s="10" t="s">
-        <v>217</v>
+        <v>206</v>
       </c>
       <c r="F56" s="9" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="G56" s="9"/>
       <c r="H56" s="9" t="s">
@@ -5976,7 +5907,7 @@
         <v>24</v>
       </c>
       <c r="J56" s="9" t="s">
-        <v>214</v>
+        <v>35</v>
       </c>
       <c r="K56" s="9"/>
       <c r="L56" s="10" t="s">
@@ -5989,7 +5920,7 @@
         <v>37</v>
       </c>
       <c r="O56" s="9" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="P56" s="11">
         <v>64007</v>
@@ -6029,23 +5960,23 @@
     </row>
     <row r="57" spans="1:40" s="14" customFormat="1" ht="26.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>56</v>
       </c>
       <c r="B57" s="7">
         <v>64007</v>
       </c>
       <c r="C57" s="8" t="s">
-        <v>219</v>
+        <v>208</v>
       </c>
       <c r="D57" s="9" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="E57" s="10" t="s">
-        <v>221</v>
+        <v>210</v>
       </c>
       <c r="F57" s="9" t="s">
-        <v>222</v>
+        <v>211</v>
       </c>
       <c r="G57" s="9"/>
       <c r="H57" s="9" t="s">
@@ -6055,7 +5986,7 @@
         <v>24</v>
       </c>
       <c r="J57" s="9" t="s">
-        <v>223</v>
+        <v>35</v>
       </c>
       <c r="K57" s="9"/>
       <c r="L57" s="10" t="s">
@@ -6068,7 +5999,7 @@
         <v>37</v>
       </c>
       <c r="O57" s="9" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="P57" s="11">
         <v>64007</v>
@@ -6108,23 +6039,23 @@
     </row>
     <row r="58" spans="1:40" s="14" customFormat="1" ht="26.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>57</v>
       </c>
       <c r="B58" s="7">
         <v>64007</v>
       </c>
       <c r="C58" s="8" t="s">
-        <v>219</v>
+        <v>208</v>
       </c>
       <c r="D58" s="9" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="E58" s="10" t="s">
-        <v>221</v>
+        <v>210</v>
       </c>
       <c r="F58" s="9" t="s">
-        <v>222</v>
+        <v>211</v>
       </c>
       <c r="G58" s="9"/>
       <c r="H58" s="9" t="s">
@@ -6134,7 +6065,7 @@
         <v>24</v>
       </c>
       <c r="J58" s="9" t="s">
-        <v>223</v>
+        <v>35</v>
       </c>
       <c r="K58" s="9"/>
       <c r="L58" s="10" t="s">
@@ -6147,7 +6078,7 @@
         <v>37</v>
       </c>
       <c r="O58" s="9" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="P58" s="11">
         <v>64007</v>
@@ -6187,23 +6118,23 @@
     </row>
     <row r="59" spans="1:40" s="14" customFormat="1" ht="26.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>58</v>
       </c>
       <c r="B59" s="7">
         <v>64007</v>
       </c>
       <c r="C59" s="8" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="D59" s="9" t="s">
-        <v>225</v>
+        <v>213</v>
       </c>
       <c r="E59" s="10" t="s">
-        <v>226</v>
+        <v>214</v>
       </c>
       <c r="F59" s="9" t="s">
-        <v>227</v>
+        <v>215</v>
       </c>
       <c r="G59" s="9"/>
       <c r="H59" s="9" t="s">
@@ -6226,7 +6157,7 @@
         <v>37</v>
       </c>
       <c r="O59" s="9" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="P59" s="11">
         <v>64007</v>
@@ -6266,23 +6197,23 @@
     </row>
     <row r="60" spans="1:40" s="14" customFormat="1" ht="26.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>59</v>
       </c>
       <c r="B60" s="7">
         <v>64007</v>
       </c>
       <c r="C60" s="8" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="D60" s="9" t="s">
-        <v>225</v>
+        <v>213</v>
       </c>
       <c r="E60" s="10" t="s">
-        <v>226</v>
+        <v>214</v>
       </c>
       <c r="F60" s="9" t="s">
-        <v>227</v>
+        <v>215</v>
       </c>
       <c r="G60" s="9"/>
       <c r="H60" s="9" t="s">
@@ -6305,7 +6236,7 @@
         <v>37</v>
       </c>
       <c r="O60" s="9" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="P60" s="11">
         <v>64007</v>
@@ -6345,23 +6276,23 @@
     </row>
     <row r="61" spans="1:40" s="14" customFormat="1" ht="26.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>60</v>
       </c>
       <c r="B61" s="7">
         <v>64007</v>
       </c>
       <c r="C61" s="8" t="s">
-        <v>228</v>
+        <v>216</v>
       </c>
       <c r="D61" s="9" t="s">
-        <v>229</v>
+        <v>217</v>
       </c>
       <c r="E61" s="10" t="s">
-        <v>230</v>
+        <v>218</v>
       </c>
       <c r="F61" s="9" t="s">
-        <v>231</v>
+        <v>219</v>
       </c>
       <c r="G61" s="9"/>
       <c r="H61" s="9" t="s">
@@ -6384,7 +6315,7 @@
         <v>37</v>
       </c>
       <c r="O61" s="9" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="P61" s="11">
         <v>64007</v>
@@ -6424,23 +6355,23 @@
     </row>
     <row r="62" spans="1:40" s="14" customFormat="1" ht="26.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>61</v>
       </c>
       <c r="B62" s="7">
         <v>64007</v>
       </c>
       <c r="C62" s="8" t="s">
-        <v>228</v>
+        <v>216</v>
       </c>
       <c r="D62" s="9" t="s">
-        <v>229</v>
+        <v>217</v>
       </c>
       <c r="E62" s="10" t="s">
-        <v>230</v>
+        <v>218</v>
       </c>
       <c r="F62" s="9" t="s">
-        <v>231</v>
+        <v>219</v>
       </c>
       <c r="G62" s="9"/>
       <c r="H62" s="9" t="s">
@@ -6463,7 +6394,7 @@
         <v>37</v>
       </c>
       <c r="O62" s="9" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="P62" s="11">
         <v>64007</v>
@@ -6503,23 +6434,23 @@
     </row>
     <row r="63" spans="1:40" s="14" customFormat="1" ht="26.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>62</v>
       </c>
       <c r="B63" s="7">
         <v>64007</v>
       </c>
       <c r="C63" s="8" t="s">
-        <v>232</v>
+        <v>220</v>
       </c>
       <c r="D63" s="9" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="E63" s="10" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
       <c r="F63" s="9" t="s">
-        <v>235</v>
+        <v>223</v>
       </c>
       <c r="G63" s="9"/>
       <c r="H63" s="9" t="s">
@@ -6542,7 +6473,7 @@
         <v>37</v>
       </c>
       <c r="O63" s="9" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="P63" s="11">
         <v>64007</v>
@@ -6582,23 +6513,23 @@
     </row>
     <row r="64" spans="1:40" s="14" customFormat="1" ht="26.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>63</v>
       </c>
       <c r="B64" s="7">
         <v>64007</v>
       </c>
       <c r="C64" s="8" t="s">
-        <v>232</v>
+        <v>220</v>
       </c>
       <c r="D64" s="9" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="E64" s="10" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
       <c r="F64" s="9" t="s">
-        <v>235</v>
+        <v>223</v>
       </c>
       <c r="G64" s="9"/>
       <c r="H64" s="9" t="s">
@@ -6621,7 +6552,7 @@
         <v>37</v>
       </c>
       <c r="O64" s="9" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="P64" s="11">
         <v>64007</v>
@@ -6661,23 +6592,23 @@
     </row>
     <row r="65" spans="1:40" s="14" customFormat="1" ht="26.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>64</v>
       </c>
       <c r="B65" s="7">
         <v>64007</v>
       </c>
       <c r="C65" s="8" t="s">
-        <v>236</v>
+        <v>224</v>
       </c>
       <c r="D65" s="9" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
       <c r="E65" s="10" t="s">
-        <v>238</v>
+        <v>226</v>
       </c>
       <c r="F65" s="9" t="s">
-        <v>239</v>
+        <v>227</v>
       </c>
       <c r="G65" s="9"/>
       <c r="H65" s="9" t="s">
@@ -6700,7 +6631,7 @@
         <v>37</v>
       </c>
       <c r="O65" s="9" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="P65" s="11">
         <v>64007</v>
@@ -6740,23 +6671,23 @@
     </row>
     <row r="66" spans="1:40" s="14" customFormat="1" ht="26.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>65</v>
       </c>
       <c r="B66" s="7">
         <v>64007</v>
       </c>
       <c r="C66" s="8" t="s">
-        <v>236</v>
+        <v>224</v>
       </c>
       <c r="D66" s="9" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
       <c r="E66" s="10" t="s">
-        <v>238</v>
+        <v>226</v>
       </c>
       <c r="F66" s="9" t="s">
-        <v>239</v>
+        <v>227</v>
       </c>
       <c r="G66" s="9"/>
       <c r="H66" s="9" t="s">
@@ -6779,7 +6710,7 @@
         <v>37</v>
       </c>
       <c r="O66" s="9" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="P66" s="11">
         <v>64007</v>
@@ -6819,23 +6750,23 @@
     </row>
     <row r="67" spans="1:40" s="14" customFormat="1" ht="26.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="6">
-        <f t="shared" ref="A67:A98" si="2" xml:space="preserve"> A66 + 1</f>
+        <f t="shared" ref="A67:A105" si="1" xml:space="preserve"> A66 + 1</f>
         <v>66</v>
       </c>
       <c r="B67" s="7">
         <v>64007</v>
       </c>
       <c r="C67" s="8" t="s">
-        <v>240</v>
+        <v>228</v>
       </c>
       <c r="D67" s="9" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="E67" s="10" t="s">
-        <v>242</v>
+        <v>230</v>
       </c>
       <c r="F67" s="9" t="s">
-        <v>243</v>
+        <v>231</v>
       </c>
       <c r="G67" s="9"/>
       <c r="H67" s="9" t="s">
@@ -6858,7 +6789,7 @@
         <v>37</v>
       </c>
       <c r="O67" s="9" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="P67" s="11">
         <v>64007</v>
@@ -6898,23 +6829,23 @@
     </row>
     <row r="68" spans="1:40" s="14" customFormat="1" ht="26.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>67</v>
       </c>
       <c r="B68" s="7">
         <v>64007</v>
       </c>
       <c r="C68" s="8" t="s">
-        <v>240</v>
+        <v>228</v>
       </c>
       <c r="D68" s="9" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="E68" s="10" t="s">
-        <v>242</v>
+        <v>230</v>
       </c>
       <c r="F68" s="9" t="s">
-        <v>243</v>
+        <v>231</v>
       </c>
       <c r="G68" s="9"/>
       <c r="H68" s="9" t="s">
@@ -6937,7 +6868,7 @@
         <v>37</v>
       </c>
       <c r="O68" s="9" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="P68" s="11">
         <v>64007</v>
@@ -6977,23 +6908,23 @@
     </row>
     <row r="69" spans="1:40" s="14" customFormat="1" ht="26.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>68</v>
       </c>
       <c r="B69" s="7">
         <v>64007</v>
       </c>
       <c r="C69" s="8" t="s">
-        <v>244</v>
+        <v>232</v>
       </c>
       <c r="D69" s="9" t="s">
-        <v>245</v>
+        <v>233</v>
       </c>
       <c r="E69" s="10" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
       <c r="F69" s="9" t="s">
-        <v>247</v>
+        <v>235</v>
       </c>
       <c r="G69" s="9"/>
       <c r="H69" s="9" t="s">
@@ -7016,7 +6947,7 @@
         <v>37</v>
       </c>
       <c r="O69" s="9" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="P69" s="11">
         <v>64007</v>
@@ -7025,7 +6956,7 @@
         <v>27</v>
       </c>
       <c r="R69" s="10" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="S69" s="10" t="s">
         <v>29</v>
@@ -7056,23 +6987,23 @@
     </row>
     <row r="70" spans="1:40" s="14" customFormat="1" ht="26.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>69</v>
       </c>
       <c r="B70" s="7">
         <v>64007</v>
       </c>
       <c r="C70" s="8" t="s">
-        <v>244</v>
+        <v>232</v>
       </c>
       <c r="D70" s="9" t="s">
-        <v>245</v>
+        <v>233</v>
       </c>
       <c r="E70" s="10" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
       <c r="F70" s="9" t="s">
-        <v>247</v>
+        <v>235</v>
       </c>
       <c r="G70" s="9"/>
       <c r="H70" s="9" t="s">
@@ -7095,7 +7026,7 @@
         <v>37</v>
       </c>
       <c r="O70" s="9" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="P70" s="11">
         <v>64007</v>
@@ -7104,7 +7035,7 @@
         <v>27</v>
       </c>
       <c r="R70" s="10" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="S70" s="10" t="s">
         <v>29</v>
@@ -7135,23 +7066,23 @@
     </row>
     <row r="71" spans="1:40" s="14" customFormat="1" ht="26.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>70</v>
       </c>
       <c r="B71" s="7">
         <v>64007</v>
       </c>
       <c r="C71" s="8" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="D71" s="9" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="E71" s="10" t="s">
-        <v>250</v>
+        <v>238</v>
       </c>
       <c r="F71" s="9" t="s">
-        <v>251</v>
+        <v>239</v>
       </c>
       <c r="G71" s="9"/>
       <c r="H71" s="9" t="s">
@@ -7174,7 +7105,7 @@
         <v>37</v>
       </c>
       <c r="O71" s="9" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="P71" s="11">
         <v>64007</v>
@@ -7183,7 +7114,7 @@
         <v>27</v>
       </c>
       <c r="R71" s="10" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="S71" s="10" t="s">
         <v>29</v>
@@ -7214,23 +7145,23 @@
     </row>
     <row r="72" spans="1:40" s="14" customFormat="1" ht="26.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>71</v>
       </c>
       <c r="B72" s="7">
         <v>64007</v>
       </c>
       <c r="C72" s="8" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="D72" s="9" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="E72" s="10" t="s">
-        <v>250</v>
+        <v>238</v>
       </c>
       <c r="F72" s="9" t="s">
-        <v>251</v>
+        <v>239</v>
       </c>
       <c r="G72" s="9"/>
       <c r="H72" s="9" t="s">
@@ -7253,7 +7184,7 @@
         <v>37</v>
       </c>
       <c r="O72" s="9" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="P72" s="11">
         <v>64007</v>
@@ -7262,7 +7193,7 @@
         <v>27</v>
       </c>
       <c r="R72" s="10" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="S72" s="10" t="s">
         <v>29</v>
@@ -7293,23 +7224,23 @@
     </row>
     <row r="73" spans="1:40" s="14" customFormat="1" ht="26.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>72</v>
       </c>
       <c r="B73" s="7">
         <v>64007</v>
       </c>
       <c r="C73" s="8" t="s">
-        <v>252</v>
+        <v>240</v>
       </c>
       <c r="D73" s="9" t="s">
-        <v>253</v>
+        <v>241</v>
       </c>
       <c r="E73" s="10" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
       <c r="F73" s="9" t="s">
-        <v>255</v>
+        <v>243</v>
       </c>
       <c r="G73" s="9"/>
       <c r="H73" s="9" t="s">
@@ -7332,7 +7263,7 @@
         <v>37</v>
       </c>
       <c r="O73" s="9" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="P73" s="11">
         <v>64007</v>
@@ -7341,7 +7272,7 @@
         <v>27</v>
       </c>
       <c r="R73" s="10" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="S73" s="10" t="s">
         <v>29</v>
@@ -7372,23 +7303,23 @@
     </row>
     <row r="74" spans="1:40" s="14" customFormat="1" ht="26.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>73</v>
       </c>
       <c r="B74" s="7">
         <v>64007</v>
       </c>
       <c r="C74" s="8" t="s">
-        <v>252</v>
+        <v>240</v>
       </c>
       <c r="D74" s="9" t="s">
-        <v>253</v>
+        <v>241</v>
       </c>
       <c r="E74" s="10" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
       <c r="F74" s="9" t="s">
-        <v>255</v>
+        <v>243</v>
       </c>
       <c r="G74" s="9"/>
       <c r="H74" s="9" t="s">
@@ -7411,7 +7342,7 @@
         <v>37</v>
       </c>
       <c r="O74" s="9" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="P74" s="11">
         <v>64007</v>
@@ -7420,7 +7351,7 @@
         <v>27</v>
       </c>
       <c r="R74" s="10" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="S74" s="10" t="s">
         <v>29</v>
@@ -7451,23 +7382,23 @@
     </row>
     <row r="75" spans="1:40" s="14" customFormat="1" ht="26.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>74</v>
       </c>
       <c r="B75" s="7">
         <v>64007</v>
       </c>
       <c r="C75" s="8" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
       <c r="D75" s="9" t="s">
-        <v>257</v>
+        <v>245</v>
       </c>
       <c r="E75" s="10" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="F75" s="9" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="G75" s="9"/>
       <c r="H75" s="9" t="s">
@@ -7477,7 +7408,7 @@
         <v>24</v>
       </c>
       <c r="J75" s="9" t="s">
-        <v>35</v>
+        <v>164</v>
       </c>
       <c r="K75" s="9"/>
       <c r="L75" s="10" t="s">
@@ -7490,7 +7421,7 @@
         <v>37</v>
       </c>
       <c r="O75" s="9" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="P75" s="11">
         <v>64007</v>
@@ -7530,23 +7461,23 @@
     </row>
     <row r="76" spans="1:40" s="14" customFormat="1" ht="26.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>75</v>
       </c>
       <c r="B76" s="7">
         <v>64007</v>
       </c>
       <c r="C76" s="8" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
       <c r="D76" s="9" t="s">
-        <v>257</v>
+        <v>245</v>
       </c>
       <c r="E76" s="10" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="F76" s="9" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="G76" s="9"/>
       <c r="H76" s="9" t="s">
@@ -7556,7 +7487,7 @@
         <v>24</v>
       </c>
       <c r="J76" s="9" t="s">
-        <v>35</v>
+        <v>164</v>
       </c>
       <c r="K76" s="9"/>
       <c r="L76" s="10" t="s">
@@ -7569,7 +7500,7 @@
         <v>37</v>
       </c>
       <c r="O76" s="9" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="P76" s="11">
         <v>64007</v>
@@ -7609,23 +7540,23 @@
     </row>
     <row r="77" spans="1:40" s="14" customFormat="1" ht="26.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>76</v>
       </c>
       <c r="B77" s="7">
         <v>64007</v>
       </c>
       <c r="C77" s="8" t="s">
-        <v>260</v>
+        <v>248</v>
       </c>
       <c r="D77" s="9" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
       <c r="E77" s="10" t="s">
-        <v>262</v>
+        <v>250</v>
       </c>
       <c r="F77" s="9" t="s">
-        <v>263</v>
+        <v>251</v>
       </c>
       <c r="G77" s="9"/>
       <c r="H77" s="9" t="s">
@@ -7648,7 +7579,7 @@
         <v>37</v>
       </c>
       <c r="O77" s="9" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="P77" s="11">
         <v>64007</v>
@@ -7688,23 +7619,23 @@
     </row>
     <row r="78" spans="1:40" s="14" customFormat="1" ht="26.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>77</v>
       </c>
       <c r="B78" s="7">
         <v>64007</v>
       </c>
       <c r="C78" s="8" t="s">
-        <v>260</v>
+        <v>248</v>
       </c>
       <c r="D78" s="9" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
       <c r="E78" s="10" t="s">
-        <v>262</v>
+        <v>250</v>
       </c>
       <c r="F78" s="9" t="s">
-        <v>263</v>
+        <v>251</v>
       </c>
       <c r="G78" s="9"/>
       <c r="H78" s="9" t="s">
@@ -7727,7 +7658,7 @@
         <v>37</v>
       </c>
       <c r="O78" s="9" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="P78" s="11">
         <v>64007</v>
@@ -7767,23 +7698,23 @@
     </row>
     <row r="79" spans="1:40" s="14" customFormat="1" ht="26.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>78</v>
       </c>
       <c r="B79" s="7">
         <v>64007</v>
       </c>
       <c r="C79" s="8" t="s">
-        <v>264</v>
+        <v>252</v>
       </c>
       <c r="D79" s="9" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
       <c r="E79" s="10" t="s">
-        <v>266</v>
+        <v>254</v>
       </c>
       <c r="F79" s="9" t="s">
-        <v>267</v>
+        <v>255</v>
       </c>
       <c r="G79" s="9"/>
       <c r="H79" s="9" t="s">
@@ -7806,7 +7737,7 @@
         <v>37</v>
       </c>
       <c r="O79" s="9" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="P79" s="11">
         <v>64007</v>
@@ -7846,23 +7777,23 @@
     </row>
     <row r="80" spans="1:40" s="14" customFormat="1" ht="26.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>79</v>
       </c>
       <c r="B80" s="7">
         <v>64007</v>
       </c>
       <c r="C80" s="8" t="s">
-        <v>264</v>
+        <v>252</v>
       </c>
       <c r="D80" s="9" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
       <c r="E80" s="10" t="s">
-        <v>266</v>
+        <v>254</v>
       </c>
       <c r="F80" s="9" t="s">
-        <v>267</v>
+        <v>255</v>
       </c>
       <c r="G80" s="9"/>
       <c r="H80" s="9" t="s">
@@ -7885,7 +7816,7 @@
         <v>37</v>
       </c>
       <c r="O80" s="9" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="P80" s="11">
         <v>64007</v>
@@ -7925,25 +7856,27 @@
     </row>
     <row r="81" spans="1:40" s="14" customFormat="1" ht="26.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>80</v>
       </c>
       <c r="B81" s="7">
         <v>64007</v>
       </c>
       <c r="C81" s="8" t="s">
-        <v>268</v>
+        <v>256</v>
       </c>
       <c r="D81" s="9" t="s">
-        <v>269</v>
+        <v>257</v>
       </c>
       <c r="E81" s="10" t="s">
-        <v>270</v>
+        <v>258</v>
       </c>
       <c r="F81" s="9" t="s">
-        <v>271</v>
-      </c>
-      <c r="G81" s="9"/>
+        <v>259</v>
+      </c>
+      <c r="G81" s="9" t="s">
+        <v>260</v>
+      </c>
       <c r="H81" s="9" t="s">
         <v>23</v>
       </c>
@@ -7951,7 +7884,7 @@
         <v>24</v>
       </c>
       <c r="J81" s="9" t="s">
-        <v>176</v>
+        <v>35</v>
       </c>
       <c r="K81" s="9"/>
       <c r="L81" s="10" t="s">
@@ -7964,7 +7897,7 @@
         <v>37</v>
       </c>
       <c r="O81" s="9" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="P81" s="11">
         <v>64007</v>
@@ -7973,7 +7906,7 @@
         <v>27</v>
       </c>
       <c r="R81" s="10" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="S81" s="10" t="s">
         <v>29</v>
@@ -8004,25 +7937,27 @@
     </row>
     <row r="82" spans="1:40" s="14" customFormat="1" ht="26.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>81</v>
       </c>
       <c r="B82" s="7">
         <v>64007</v>
       </c>
       <c r="C82" s="8" t="s">
-        <v>268</v>
+        <v>256</v>
       </c>
       <c r="D82" s="9" t="s">
-        <v>269</v>
+        <v>257</v>
       </c>
       <c r="E82" s="10" t="s">
-        <v>270</v>
+        <v>258</v>
       </c>
       <c r="F82" s="9" t="s">
-        <v>271</v>
-      </c>
-      <c r="G82" s="9"/>
+        <v>259</v>
+      </c>
+      <c r="G82" s="9" t="s">
+        <v>260</v>
+      </c>
       <c r="H82" s="9" t="s">
         <v>23</v>
       </c>
@@ -8030,7 +7965,7 @@
         <v>24</v>
       </c>
       <c r="J82" s="9" t="s">
-        <v>176</v>
+        <v>35</v>
       </c>
       <c r="K82" s="9"/>
       <c r="L82" s="10" t="s">
@@ -8043,7 +7978,7 @@
         <v>37</v>
       </c>
       <c r="O82" s="9" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="P82" s="11">
         <v>64007</v>
@@ -8052,7 +7987,7 @@
         <v>27</v>
       </c>
       <c r="R82" s="10" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="S82" s="10" t="s">
         <v>29</v>
@@ -8083,25 +8018,27 @@
     </row>
     <row r="83" spans="1:40" s="14" customFormat="1" ht="26.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>82</v>
       </c>
       <c r="B83" s="7">
         <v>64007</v>
       </c>
       <c r="C83" s="8" t="s">
-        <v>272</v>
+        <v>261</v>
       </c>
       <c r="D83" s="9" t="s">
-        <v>273</v>
+        <v>262</v>
       </c>
       <c r="E83" s="10" t="s">
-        <v>274</v>
+        <v>263</v>
       </c>
       <c r="F83" s="9" t="s">
-        <v>275</v>
-      </c>
-      <c r="G83" s="9"/>
+        <v>264</v>
+      </c>
+      <c r="G83" s="9" t="s">
+        <v>265</v>
+      </c>
       <c r="H83" s="9" t="s">
         <v>23</v>
       </c>
@@ -8122,7 +8059,7 @@
         <v>37</v>
       </c>
       <c r="O83" s="9" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="P83" s="11">
         <v>64007</v>
@@ -8131,7 +8068,7 @@
         <v>27</v>
       </c>
       <c r="R83" s="10" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="S83" s="10" t="s">
         <v>29</v>
@@ -8162,25 +8099,27 @@
     </row>
     <row r="84" spans="1:40" s="14" customFormat="1" ht="26.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>83</v>
       </c>
       <c r="B84" s="7">
         <v>64007</v>
       </c>
       <c r="C84" s="8" t="s">
-        <v>272</v>
+        <v>261</v>
       </c>
       <c r="D84" s="9" t="s">
-        <v>273</v>
+        <v>262</v>
       </c>
       <c r="E84" s="10" t="s">
-        <v>274</v>
+        <v>263</v>
       </c>
       <c r="F84" s="9" t="s">
-        <v>275</v>
-      </c>
-      <c r="G84" s="9"/>
+        <v>264</v>
+      </c>
+      <c r="G84" s="9" t="s">
+        <v>265</v>
+      </c>
       <c r="H84" s="9" t="s">
         <v>23</v>
       </c>
@@ -8201,7 +8140,7 @@
         <v>37</v>
       </c>
       <c r="O84" s="9" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="P84" s="11">
         <v>64007</v>
@@ -8210,7 +8149,7 @@
         <v>27</v>
       </c>
       <c r="R84" s="10" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="S84" s="10" t="s">
         <v>29</v>
@@ -8241,25 +8180,27 @@
     </row>
     <row r="85" spans="1:40" s="14" customFormat="1" ht="26.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>84</v>
       </c>
       <c r="B85" s="7">
         <v>64007</v>
       </c>
       <c r="C85" s="8" t="s">
-        <v>276</v>
+        <v>266</v>
       </c>
       <c r="D85" s="9" t="s">
-        <v>277</v>
+        <v>267</v>
       </c>
       <c r="E85" s="10" t="s">
-        <v>278</v>
+        <v>268</v>
       </c>
       <c r="F85" s="9" t="s">
-        <v>279</v>
-      </c>
-      <c r="G85" s="9"/>
+        <v>269</v>
+      </c>
+      <c r="G85" s="9" t="s">
+        <v>270</v>
+      </c>
       <c r="H85" s="9" t="s">
         <v>23</v>
       </c>
@@ -8280,7 +8221,7 @@
         <v>37</v>
       </c>
       <c r="O85" s="9" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="P85" s="11">
         <v>64007</v>
@@ -8289,7 +8230,7 @@
         <v>27</v>
       </c>
       <c r="R85" s="10" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="S85" s="10" t="s">
         <v>29</v>
@@ -8320,25 +8261,27 @@
     </row>
     <row r="86" spans="1:40" s="14" customFormat="1" ht="26.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>85</v>
       </c>
       <c r="B86" s="7">
         <v>64007</v>
       </c>
       <c r="C86" s="8" t="s">
-        <v>276</v>
+        <v>266</v>
       </c>
       <c r="D86" s="9" t="s">
-        <v>277</v>
+        <v>267</v>
       </c>
       <c r="E86" s="10" t="s">
-        <v>278</v>
+        <v>268</v>
       </c>
       <c r="F86" s="9" t="s">
-        <v>279</v>
-      </c>
-      <c r="G86" s="9"/>
+        <v>269</v>
+      </c>
+      <c r="G86" s="9" t="s">
+        <v>270</v>
+      </c>
       <c r="H86" s="9" t="s">
         <v>23</v>
       </c>
@@ -8359,7 +8302,7 @@
         <v>37</v>
       </c>
       <c r="O86" s="9" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="P86" s="11">
         <v>64007</v>
@@ -8368,7 +8311,7 @@
         <v>27</v>
       </c>
       <c r="R86" s="10" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="S86" s="10" t="s">
         <v>29</v>
@@ -8399,26 +8342,26 @@
     </row>
     <row r="87" spans="1:40" s="14" customFormat="1" ht="26.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>86</v>
       </c>
       <c r="B87" s="7">
         <v>64007</v>
       </c>
       <c r="C87" s="8" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
       <c r="D87" s="9" t="s">
-        <v>281</v>
+        <v>272</v>
       </c>
       <c r="E87" s="10" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
       <c r="F87" s="9" t="s">
-        <v>283</v>
+        <v>274</v>
       </c>
       <c r="G87" s="9" t="s">
-        <v>284</v>
+        <v>275</v>
       </c>
       <c r="H87" s="9" t="s">
         <v>23</v>
@@ -8440,7 +8383,7 @@
         <v>37</v>
       </c>
       <c r="O87" s="9" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="P87" s="11">
         <v>64007</v>
@@ -8480,26 +8423,26 @@
     </row>
     <row r="88" spans="1:40" s="14" customFormat="1" ht="26.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>87</v>
       </c>
       <c r="B88" s="7">
         <v>64007</v>
       </c>
       <c r="C88" s="8" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
       <c r="D88" s="9" t="s">
-        <v>281</v>
+        <v>272</v>
       </c>
       <c r="E88" s="10" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
       <c r="F88" s="9" t="s">
-        <v>283</v>
+        <v>274</v>
       </c>
       <c r="G88" s="9" t="s">
-        <v>284</v>
+        <v>275</v>
       </c>
       <c r="H88" s="9" t="s">
         <v>23</v>
@@ -8521,7 +8464,7 @@
         <v>37</v>
       </c>
       <c r="O88" s="9" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="P88" s="11">
         <v>64007</v>
@@ -8561,27 +8504,25 @@
     </row>
     <row r="89" spans="1:40" s="14" customFormat="1" ht="26.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>88</v>
       </c>
       <c r="B89" s="7">
         <v>64007</v>
       </c>
       <c r="C89" s="8" t="s">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="D89" s="9" t="s">
-        <v>286</v>
+        <v>277</v>
       </c>
       <c r="E89" s="10" t="s">
-        <v>287</v>
+        <v>278</v>
       </c>
       <c r="F89" s="9" t="s">
-        <v>288</v>
-      </c>
-      <c r="G89" s="9" t="s">
-        <v>289</v>
-      </c>
+        <v>279</v>
+      </c>
+      <c r="G89" s="9"/>
       <c r="H89" s="9" t="s">
         <v>23</v>
       </c>
@@ -8602,7 +8543,7 @@
         <v>37</v>
       </c>
       <c r="O89" s="9" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="P89" s="11">
         <v>64007</v>
@@ -8642,27 +8583,25 @@
     </row>
     <row r="90" spans="1:40" s="14" customFormat="1" ht="26.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>89</v>
       </c>
       <c r="B90" s="7">
         <v>64007</v>
       </c>
       <c r="C90" s="8" t="s">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="D90" s="9" t="s">
-        <v>286</v>
+        <v>277</v>
       </c>
       <c r="E90" s="10" t="s">
-        <v>287</v>
+        <v>278</v>
       </c>
       <c r="F90" s="9" t="s">
-        <v>288</v>
-      </c>
-      <c r="G90" s="9" t="s">
-        <v>289</v>
-      </c>
+        <v>279</v>
+      </c>
+      <c r="G90" s="9"/>
       <c r="H90" s="9" t="s">
         <v>23</v>
       </c>
@@ -8683,7 +8622,7 @@
         <v>37</v>
       </c>
       <c r="O90" s="9" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="P90" s="11">
         <v>64007</v>
@@ -8723,27 +8662,25 @@
     </row>
     <row r="91" spans="1:40" s="14" customFormat="1" ht="26.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>90</v>
       </c>
       <c r="B91" s="7">
         <v>64007</v>
       </c>
       <c r="C91" s="8" t="s">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="D91" s="9" t="s">
-        <v>291</v>
+        <v>281</v>
       </c>
       <c r="E91" s="10" t="s">
-        <v>292</v>
+        <v>282</v>
       </c>
       <c r="F91" s="9" t="s">
-        <v>293</v>
-      </c>
-      <c r="G91" s="9" t="s">
-        <v>294</v>
-      </c>
+        <v>283</v>
+      </c>
+      <c r="G91" s="9"/>
       <c r="H91" s="9" t="s">
         <v>23</v>
       </c>
@@ -8751,7 +8688,7 @@
         <v>24</v>
       </c>
       <c r="J91" s="9" t="s">
-        <v>35</v>
+        <v>164</v>
       </c>
       <c r="K91" s="9"/>
       <c r="L91" s="10" t="s">
@@ -8764,7 +8701,7 @@
         <v>37</v>
       </c>
       <c r="O91" s="9" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="P91" s="11">
         <v>64007</v>
@@ -8804,27 +8741,25 @@
     </row>
     <row r="92" spans="1:40" s="14" customFormat="1" ht="26.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>91</v>
       </c>
       <c r="B92" s="7">
         <v>64007</v>
       </c>
       <c r="C92" s="8" t="s">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="D92" s="9" t="s">
-        <v>291</v>
+        <v>281</v>
       </c>
       <c r="E92" s="10" t="s">
-        <v>292</v>
+        <v>282</v>
       </c>
       <c r="F92" s="9" t="s">
-        <v>293</v>
-      </c>
-      <c r="G92" s="9" t="s">
-        <v>294</v>
-      </c>
+        <v>283</v>
+      </c>
+      <c r="G92" s="9"/>
       <c r="H92" s="9" t="s">
         <v>23</v>
       </c>
@@ -8832,7 +8767,7 @@
         <v>24</v>
       </c>
       <c r="J92" s="9" t="s">
-        <v>35</v>
+        <v>164</v>
       </c>
       <c r="K92" s="9"/>
       <c r="L92" s="10" t="s">
@@ -8845,7 +8780,7 @@
         <v>37</v>
       </c>
       <c r="O92" s="9" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="P92" s="11">
         <v>64007</v>
@@ -8885,27 +8820,25 @@
     </row>
     <row r="93" spans="1:40" s="14" customFormat="1" ht="26.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>92</v>
       </c>
       <c r="B93" s="7">
         <v>64007</v>
       </c>
       <c r="C93" s="8" t="s">
-        <v>295</v>
+        <v>284</v>
       </c>
       <c r="D93" s="9" t="s">
-        <v>296</v>
+        <v>285</v>
       </c>
       <c r="E93" s="10" t="s">
-        <v>297</v>
+        <v>286</v>
       </c>
       <c r="F93" s="9" t="s">
-        <v>298</v>
-      </c>
-      <c r="G93" s="9" t="s">
-        <v>299</v>
-      </c>
+        <v>287</v>
+      </c>
+      <c r="G93" s="9"/>
       <c r="H93" s="9" t="s">
         <v>23</v>
       </c>
@@ -8923,22 +8856,22 @@
         <v>36</v>
       </c>
       <c r="N93" s="10" t="s">
-        <v>37</v>
+        <v>288</v>
       </c>
       <c r="O93" s="9" t="s">
-        <v>155</v>
+        <v>289</v>
       </c>
       <c r="P93" s="11">
         <v>64007</v>
       </c>
       <c r="Q93" s="9" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="R93" s="10" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="S93" s="10" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="T93" s="11">
         <v>64007</v>
@@ -8966,27 +8899,25 @@
     </row>
     <row r="94" spans="1:40" s="14" customFormat="1" ht="26.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>93</v>
       </c>
       <c r="B94" s="7">
         <v>64007</v>
       </c>
       <c r="C94" s="8" t="s">
-        <v>295</v>
+        <v>284</v>
       </c>
       <c r="D94" s="9" t="s">
-        <v>296</v>
+        <v>285</v>
       </c>
       <c r="E94" s="10" t="s">
-        <v>297</v>
+        <v>286</v>
       </c>
       <c r="F94" s="9" t="s">
-        <v>298</v>
-      </c>
-      <c r="G94" s="9" t="s">
-        <v>299</v>
-      </c>
+        <v>287</v>
+      </c>
+      <c r="G94" s="9"/>
       <c r="H94" s="9" t="s">
         <v>23</v>
       </c>
@@ -9004,22 +8935,22 @@
         <v>36</v>
       </c>
       <c r="N94" s="10" t="s">
-        <v>37</v>
+        <v>288</v>
       </c>
       <c r="O94" s="9" t="s">
-        <v>155</v>
+        <v>289</v>
       </c>
       <c r="P94" s="11">
         <v>64007</v>
       </c>
       <c r="Q94" s="9" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="R94" s="10" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="S94" s="10" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="T94" s="11">
         <v>64007</v>
@@ -9047,25 +8978,27 @@
     </row>
     <row r="95" spans="1:40" s="14" customFormat="1" ht="26.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>94</v>
       </c>
       <c r="B95" s="7">
         <v>64007</v>
       </c>
       <c r="C95" s="8" t="s">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="D95" s="9" t="s">
-        <v>301</v>
+        <v>291</v>
       </c>
       <c r="E95" s="10" t="s">
-        <v>302</v>
+        <v>292</v>
       </c>
       <c r="F95" s="9" t="s">
-        <v>303</v>
-      </c>
-      <c r="G95" s="9"/>
+        <v>293</v>
+      </c>
+      <c r="G95" s="9" t="s">
+        <v>294</v>
+      </c>
       <c r="H95" s="9" t="s">
         <v>23</v>
       </c>
@@ -9080,13 +9013,13 @@
         <v>26</v>
       </c>
       <c r="M95" s="9" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="N95" s="10" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="O95" s="9" t="s">
-        <v>155</v>
+        <v>29</v>
       </c>
       <c r="P95" s="11">
         <v>64007</v>
@@ -9095,10 +9028,10 @@
         <v>27</v>
       </c>
       <c r="R95" s="10" t="s">
-        <v>28</v>
+        <v>94</v>
       </c>
       <c r="S95" s="10" t="s">
-        <v>29</v>
+        <v>295</v>
       </c>
       <c r="T95" s="11">
         <v>64007</v>
@@ -9126,25 +9059,27 @@
     </row>
     <row r="96" spans="1:40" s="14" customFormat="1" ht="26.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>95</v>
       </c>
       <c r="B96" s="7">
         <v>64007</v>
       </c>
       <c r="C96" s="8" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="D96" s="9" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="E96" s="10" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="F96" s="9" t="s">
-        <v>303</v>
-      </c>
-      <c r="G96" s="9"/>
+        <v>299</v>
+      </c>
+      <c r="G96" s="9" t="s">
+        <v>294</v>
+      </c>
       <c r="H96" s="9" t="s">
         <v>23</v>
       </c>
@@ -9159,13 +9094,13 @@
         <v>26</v>
       </c>
       <c r="M96" s="9" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="N96" s="10" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="O96" s="9" t="s">
-        <v>155</v>
+        <v>29</v>
       </c>
       <c r="P96" s="11">
         <v>64007</v>
@@ -9174,10 +9109,10 @@
         <v>27</v>
       </c>
       <c r="R96" s="10" t="s">
-        <v>28</v>
+        <v>94</v>
       </c>
       <c r="S96" s="10" t="s">
-        <v>29</v>
+        <v>295</v>
       </c>
       <c r="T96" s="11">
         <v>64007</v>
@@ -9205,23 +9140,23 @@
     </row>
     <row r="97" spans="1:40" s="14" customFormat="1" ht="26.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>96</v>
       </c>
       <c r="B97" s="7">
         <v>64007</v>
       </c>
       <c r="C97" s="8" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="D97" s="9" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="E97" s="10" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="F97" s="9" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="G97" s="9"/>
       <c r="H97" s="9" t="s">
@@ -9231,7 +9166,7 @@
         <v>24</v>
       </c>
       <c r="J97" s="9" t="s">
-        <v>176</v>
+        <v>35</v>
       </c>
       <c r="K97" s="9"/>
       <c r="L97" s="10" t="s">
@@ -9241,22 +9176,22 @@
         <v>36</v>
       </c>
       <c r="N97" s="10" t="s">
-        <v>37</v>
+        <v>304</v>
       </c>
       <c r="O97" s="9" t="s">
-        <v>155</v>
+        <v>46</v>
       </c>
       <c r="P97" s="11">
         <v>64007</v>
       </c>
       <c r="Q97" s="9" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="R97" s="10" t="s">
-        <v>28</v>
+        <v>305</v>
       </c>
       <c r="S97" s="10" t="s">
-        <v>29</v>
+        <v>306</v>
       </c>
       <c r="T97" s="11">
         <v>64007</v>
@@ -9284,23 +9219,23 @@
     </row>
     <row r="98" spans="1:40" s="14" customFormat="1" ht="26.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>97</v>
       </c>
       <c r="B98" s="7">
         <v>64007</v>
       </c>
       <c r="C98" s="8" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="D98" s="9" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="E98" s="10" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="F98" s="9" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="G98" s="9"/>
       <c r="H98" s="9" t="s">
@@ -9310,32 +9245,32 @@
         <v>24</v>
       </c>
       <c r="J98" s="9" t="s">
-        <v>176</v>
+        <v>125</v>
       </c>
       <c r="K98" s="9"/>
       <c r="L98" s="10" t="s">
         <v>26</v>
       </c>
       <c r="M98" s="9" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="N98" s="10" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="O98" s="9" t="s">
-        <v>155</v>
+        <v>29</v>
       </c>
       <c r="P98" s="11">
         <v>64007</v>
       </c>
       <c r="Q98" s="9" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="R98" s="10" t="s">
-        <v>28</v>
+        <v>311</v>
       </c>
       <c r="S98" s="10" t="s">
-        <v>29</v>
+        <v>312</v>
       </c>
       <c r="T98" s="11">
         <v>64007</v>
@@ -9363,23 +9298,23 @@
     </row>
     <row r="99" spans="1:40" s="14" customFormat="1" ht="26.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="6">
-        <f t="shared" ref="A99:A111" si="3" xml:space="preserve"> A98 + 1</f>
+        <f t="shared" si="1"/>
         <v>98</v>
       </c>
       <c r="B99" s="7">
         <v>64007</v>
       </c>
       <c r="C99" s="8" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="D99" s="9" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="E99" s="10" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="F99" s="9" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="G99" s="9"/>
       <c r="H99" s="9" t="s">
@@ -9399,10 +9334,10 @@
         <v>36</v>
       </c>
       <c r="N99" s="10" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="O99" s="9" t="s">
-        <v>313</v>
+        <v>289</v>
       </c>
       <c r="P99" s="11">
         <v>64007</v>
@@ -9411,10 +9346,10 @@
         <v>36</v>
       </c>
       <c r="R99" s="10" t="s">
-        <v>39</v>
+        <v>318</v>
       </c>
       <c r="S99" s="10" t="s">
-        <v>40</v>
+        <v>319</v>
       </c>
       <c r="T99" s="11">
         <v>64007</v>
@@ -9442,23 +9377,23 @@
     </row>
     <row r="100" spans="1:40" s="14" customFormat="1" ht="26.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>99</v>
       </c>
       <c r="B100" s="7">
         <v>64007</v>
       </c>
       <c r="C100" s="8" t="s">
-        <v>308</v>
+        <v>320</v>
       </c>
       <c r="D100" s="9" t="s">
-        <v>309</v>
+        <v>321</v>
       </c>
       <c r="E100" s="10" t="s">
-        <v>310</v>
+        <v>322</v>
       </c>
       <c r="F100" s="9" t="s">
-        <v>311</v>
+        <v>323</v>
       </c>
       <c r="G100" s="9"/>
       <c r="H100" s="9" t="s">
@@ -9472,32 +9407,24 @@
       </c>
       <c r="K100" s="9"/>
       <c r="L100" s="10" t="s">
-        <v>26</v>
+        <v>113</v>
       </c>
       <c r="M100" s="9" t="s">
         <v>36</v>
       </c>
       <c r="N100" s="10" t="s">
-        <v>312</v>
+        <v>39</v>
       </c>
       <c r="O100" s="9" t="s">
-        <v>313</v>
+        <v>40</v>
       </c>
       <c r="P100" s="11">
         <v>64007</v>
       </c>
-      <c r="Q100" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="R100" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="S100" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="T100" s="11">
-        <v>64007</v>
-      </c>
+      <c r="Q100" s="9"/>
+      <c r="R100" s="10"/>
+      <c r="S100" s="10"/>
+      <c r="T100" s="10"/>
       <c r="U100" s="9"/>
       <c r="V100" s="12"/>
       <c r="W100" s="13"/>
@@ -9521,27 +9448,25 @@
     </row>
     <row r="101" spans="1:40" s="14" customFormat="1" ht="26.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
       <c r="B101" s="7">
         <v>64007</v>
       </c>
       <c r="C101" s="8" t="s">
-        <v>314</v>
+        <v>324</v>
       </c>
       <c r="D101" s="9" t="s">
-        <v>315</v>
+        <v>325</v>
       </c>
       <c r="E101" s="10" t="s">
-        <v>316</v>
+        <v>326</v>
       </c>
       <c r="F101" s="9" t="s">
-        <v>317</v>
-      </c>
-      <c r="G101" s="9" t="s">
-        <v>318</v>
-      </c>
+        <v>327</v>
+      </c>
+      <c r="G101" s="9"/>
       <c r="H101" s="9" t="s">
         <v>23</v>
       </c>
@@ -9553,32 +9478,24 @@
       </c>
       <c r="K101" s="9"/>
       <c r="L101" s="10" t="s">
-        <v>26</v>
+        <v>113</v>
       </c>
       <c r="M101" s="9" t="s">
-        <v>27</v>
+        <v>62</v>
       </c>
       <c r="N101" s="10" t="s">
-        <v>47</v>
+        <v>114</v>
       </c>
       <c r="O101" s="9" t="s">
-        <v>29</v>
+        <v>328</v>
       </c>
       <c r="P101" s="11">
         <v>64007</v>
       </c>
-      <c r="Q101" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="R101" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="S101" s="10" t="s">
-        <v>319</v>
-      </c>
-      <c r="T101" s="11">
-        <v>64007</v>
-      </c>
+      <c r="Q101" s="9"/>
+      <c r="R101" s="10"/>
+      <c r="S101" s="10"/>
+      <c r="T101" s="10"/>
       <c r="U101" s="9"/>
       <c r="V101" s="12"/>
       <c r="W101" s="13"/>
@@ -9602,26 +9519,26 @@
     </row>
     <row r="102" spans="1:40" s="14" customFormat="1" ht="26.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>101</v>
       </c>
       <c r="B102" s="7">
         <v>64007</v>
       </c>
       <c r="C102" s="8" t="s">
-        <v>320</v>
+        <v>329</v>
       </c>
       <c r="D102" s="9" t="s">
-        <v>321</v>
+        <v>330</v>
       </c>
       <c r="E102" s="10" t="s">
-        <v>322</v>
+        <v>331</v>
       </c>
       <c r="F102" s="9" t="s">
-        <v>323</v>
+        <v>332</v>
       </c>
       <c r="G102" s="9" t="s">
-        <v>318</v>
+        <v>333</v>
       </c>
       <c r="H102" s="9" t="s">
         <v>23</v>
@@ -9634,32 +9551,24 @@
       </c>
       <c r="K102" s="9"/>
       <c r="L102" s="10" t="s">
-        <v>26</v>
+        <v>113</v>
       </c>
       <c r="M102" s="9" t="s">
-        <v>27</v>
+        <v>62</v>
       </c>
       <c r="N102" s="10" t="s">
-        <v>47</v>
+        <v>94</v>
       </c>
       <c r="O102" s="9" t="s">
-        <v>29</v>
+        <v>65</v>
       </c>
       <c r="P102" s="11">
         <v>64007</v>
       </c>
-      <c r="Q102" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="R102" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="S102" s="10" t="s">
-        <v>319</v>
-      </c>
-      <c r="T102" s="11">
-        <v>64007</v>
-      </c>
+      <c r="Q102" s="9"/>
+      <c r="R102" s="10"/>
+      <c r="S102" s="10"/>
+      <c r="T102" s="10"/>
       <c r="U102" s="9"/>
       <c r="V102" s="12"/>
       <c r="W102" s="13"/>
@@ -9683,25 +9592,27 @@
     </row>
     <row r="103" spans="1:40" s="14" customFormat="1" ht="26.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>102</v>
       </c>
       <c r="B103" s="7">
         <v>64007</v>
       </c>
       <c r="C103" s="8" t="s">
-        <v>324</v>
+        <v>334</v>
       </c>
       <c r="D103" s="9" t="s">
-        <v>325</v>
+        <v>335</v>
       </c>
       <c r="E103" s="10" t="s">
-        <v>326</v>
+        <v>336</v>
       </c>
       <c r="F103" s="9" t="s">
-        <v>327</v>
-      </c>
-      <c r="G103" s="9"/>
+        <v>337</v>
+      </c>
+      <c r="G103" s="9" t="s">
+        <v>338</v>
+      </c>
       <c r="H103" s="9" t="s">
         <v>23</v>
       </c>
@@ -9713,32 +9624,24 @@
       </c>
       <c r="K103" s="9"/>
       <c r="L103" s="10" t="s">
-        <v>26</v>
+        <v>113</v>
       </c>
       <c r="M103" s="9" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="N103" s="10" t="s">
-        <v>328</v>
+        <v>30</v>
       </c>
       <c r="O103" s="9" t="s">
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="P103" s="11">
         <v>64007</v>
       </c>
-      <c r="Q103" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="R103" s="10" t="s">
-        <v>329</v>
-      </c>
-      <c r="S103" s="10" t="s">
-        <v>330</v>
-      </c>
-      <c r="T103" s="11">
-        <v>64007</v>
-      </c>
+      <c r="Q103" s="9"/>
+      <c r="R103" s="10"/>
+      <c r="S103" s="10"/>
+      <c r="T103" s="10"/>
       <c r="U103" s="9"/>
       <c r="V103" s="12"/>
       <c r="W103" s="13"/>
@@ -9762,25 +9665,25 @@
     </row>
     <row r="104" spans="1:40" s="14" customFormat="1" ht="26.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>103</v>
       </c>
       <c r="B104" s="7">
         <v>64007</v>
       </c>
       <c r="C104" s="8" t="s">
-        <v>331</v>
+        <v>339</v>
       </c>
       <c r="D104" s="9" t="s">
-        <v>332</v>
+        <v>340</v>
       </c>
       <c r="E104" s="10" t="s">
-        <v>333</v>
-      </c>
-      <c r="F104" s="9" t="s">
-        <v>334</v>
-      </c>
-      <c r="G104" s="9"/>
+        <v>341</v>
+      </c>
+      <c r="F104" s="9"/>
+      <c r="G104" s="9" t="s">
+        <v>342</v>
+      </c>
       <c r="H104" s="9" t="s">
         <v>23</v>
       </c>
@@ -9788,36 +9691,28 @@
         <v>24</v>
       </c>
       <c r="J104" s="9" t="s">
-        <v>137</v>
+        <v>35</v>
       </c>
       <c r="K104" s="9"/>
       <c r="L104" s="10" t="s">
-        <v>26</v>
+        <v>113</v>
       </c>
       <c r="M104" s="9" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="N104" s="10" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="O104" s="9" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="P104" s="11">
         <v>64007</v>
       </c>
-      <c r="Q104" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="R104" s="10" t="s">
-        <v>335</v>
-      </c>
-      <c r="S104" s="10" t="s">
-        <v>336</v>
-      </c>
-      <c r="T104" s="11">
-        <v>64007</v>
-      </c>
+      <c r="Q104" s="9"/>
+      <c r="R104" s="10"/>
+      <c r="S104" s="10"/>
+      <c r="T104" s="10"/>
       <c r="U104" s="9"/>
       <c r="V104" s="12"/>
       <c r="W104" s="13"/>
@@ -9841,25 +9736,27 @@
     </row>
     <row r="105" spans="1:40" s="14" customFormat="1" ht="26.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>104</v>
       </c>
       <c r="B105" s="7">
         <v>64007</v>
       </c>
       <c r="C105" s="8" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="D105" s="9" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
       <c r="E105" s="10" t="s">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="F105" s="9" t="s">
-        <v>340</v>
-      </c>
-      <c r="G105" s="9"/>
+        <v>346</v>
+      </c>
+      <c r="G105" s="9" t="s">
+        <v>347</v>
+      </c>
       <c r="H105" s="9" t="s">
         <v>23</v>
       </c>
@@ -9871,32 +9768,24 @@
       </c>
       <c r="K105" s="9"/>
       <c r="L105" s="10" t="s">
-        <v>26</v>
+        <v>113</v>
       </c>
       <c r="M105" s="9" t="s">
         <v>36</v>
       </c>
       <c r="N105" s="10" t="s">
-        <v>341</v>
+        <v>30</v>
       </c>
       <c r="O105" s="9" t="s">
-        <v>313</v>
+        <v>51</v>
       </c>
       <c r="P105" s="11">
         <v>64007</v>
       </c>
-      <c r="Q105" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="R105" s="10" t="s">
-        <v>342</v>
-      </c>
-      <c r="S105" s="10" t="s">
-        <v>343</v>
-      </c>
-      <c r="T105" s="11">
-        <v>64007</v>
-      </c>
+      <c r="Q105" s="9"/>
+      <c r="R105" s="10"/>
+      <c r="S105" s="10"/>
+      <c r="T105" s="10"/>
       <c r="U105" s="9"/>
       <c r="V105" s="12"/>
       <c r="W105" s="13"/>
@@ -9917,438 +9806,6 @@
       <c r="AL105" s="13"/>
       <c r="AM105" s="12"/>
       <c r="AN105" s="13"/>
-    </row>
-    <row r="106" spans="1:40" s="14" customFormat="1" ht="26.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="6">
-        <f t="shared" si="3"/>
-        <v>105</v>
-      </c>
-      <c r="B106" s="7">
-        <v>64007</v>
-      </c>
-      <c r="C106" s="8" t="s">
-        <v>344</v>
-      </c>
-      <c r="D106" s="9" t="s">
-        <v>345</v>
-      </c>
-      <c r="E106" s="10" t="s">
-        <v>346</v>
-      </c>
-      <c r="F106" s="9" t="s">
-        <v>347</v>
-      </c>
-      <c r="G106" s="9"/>
-      <c r="H106" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="I106" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="J106" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="K106" s="9"/>
-      <c r="L106" s="10" t="s">
-        <v>125</v>
-      </c>
-      <c r="M106" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="N106" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="O106" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="P106" s="11">
-        <v>64007</v>
-      </c>
-      <c r="Q106" s="9"/>
-      <c r="R106" s="10"/>
-      <c r="S106" s="10"/>
-      <c r="T106" s="10"/>
-      <c r="U106" s="9"/>
-      <c r="V106" s="12"/>
-      <c r="W106" s="13"/>
-      <c r="X106" s="12"/>
-      <c r="Y106" s="12"/>
-      <c r="Z106" s="13"/>
-      <c r="AA106" s="12"/>
-      <c r="AB106" s="12"/>
-      <c r="AC106" s="12"/>
-      <c r="AD106" s="12"/>
-      <c r="AE106" s="12"/>
-      <c r="AF106" s="12"/>
-      <c r="AG106" s="12"/>
-      <c r="AH106" s="13"/>
-      <c r="AI106" s="12"/>
-      <c r="AJ106" s="13"/>
-      <c r="AK106" s="12"/>
-      <c r="AL106" s="13"/>
-      <c r="AM106" s="12"/>
-      <c r="AN106" s="13"/>
-    </row>
-    <row r="107" spans="1:40" s="14" customFormat="1" ht="26.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="6">
-        <f t="shared" si="3"/>
-        <v>106</v>
-      </c>
-      <c r="B107" s="7">
-        <v>64007</v>
-      </c>
-      <c r="C107" s="8" t="s">
-        <v>348</v>
-      </c>
-      <c r="D107" s="9" t="s">
-        <v>349</v>
-      </c>
-      <c r="E107" s="10" t="s">
-        <v>350</v>
-      </c>
-      <c r="F107" s="9" t="s">
-        <v>351</v>
-      </c>
-      <c r="G107" s="9"/>
-      <c r="H107" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="I107" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="J107" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="K107" s="9"/>
-      <c r="L107" s="10" t="s">
-        <v>125</v>
-      </c>
-      <c r="M107" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="N107" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="O107" s="9" t="s">
-        <v>352</v>
-      </c>
-      <c r="P107" s="11">
-        <v>64007</v>
-      </c>
-      <c r="Q107" s="9"/>
-      <c r="R107" s="10"/>
-      <c r="S107" s="10"/>
-      <c r="T107" s="10"/>
-      <c r="U107" s="9"/>
-      <c r="V107" s="12"/>
-      <c r="W107" s="13"/>
-      <c r="X107" s="12"/>
-      <c r="Y107" s="12"/>
-      <c r="Z107" s="13"/>
-      <c r="AA107" s="12"/>
-      <c r="AB107" s="12"/>
-      <c r="AC107" s="12"/>
-      <c r="AD107" s="12"/>
-      <c r="AE107" s="12"/>
-      <c r="AF107" s="12"/>
-      <c r="AG107" s="12"/>
-      <c r="AH107" s="13"/>
-      <c r="AI107" s="12"/>
-      <c r="AJ107" s="13"/>
-      <c r="AK107" s="12"/>
-      <c r="AL107" s="13"/>
-      <c r="AM107" s="12"/>
-      <c r="AN107" s="13"/>
-    </row>
-    <row r="108" spans="1:40" s="14" customFormat="1" ht="26.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="6">
-        <f t="shared" si="3"/>
-        <v>107</v>
-      </c>
-      <c r="B108" s="7">
-        <v>64007</v>
-      </c>
-      <c r="C108" s="8" t="s">
-        <v>353</v>
-      </c>
-      <c r="D108" s="9" t="s">
-        <v>354</v>
-      </c>
-      <c r="E108" s="10" t="s">
-        <v>355</v>
-      </c>
-      <c r="F108" s="9" t="s">
-        <v>356</v>
-      </c>
-      <c r="G108" s="9" t="s">
-        <v>357</v>
-      </c>
-      <c r="H108" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="I108" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="J108" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="K108" s="9"/>
-      <c r="L108" s="10" t="s">
-        <v>125</v>
-      </c>
-      <c r="M108" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="N108" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="O108" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="P108" s="11">
-        <v>64007</v>
-      </c>
-      <c r="Q108" s="9"/>
-      <c r="R108" s="10"/>
-      <c r="S108" s="10"/>
-      <c r="T108" s="10"/>
-      <c r="U108" s="9"/>
-      <c r="V108" s="12"/>
-      <c r="W108" s="13"/>
-      <c r="X108" s="12"/>
-      <c r="Y108" s="12"/>
-      <c r="Z108" s="13"/>
-      <c r="AA108" s="12"/>
-      <c r="AB108" s="12"/>
-      <c r="AC108" s="12"/>
-      <c r="AD108" s="12"/>
-      <c r="AE108" s="12"/>
-      <c r="AF108" s="12"/>
-      <c r="AG108" s="12"/>
-      <c r="AH108" s="13"/>
-      <c r="AI108" s="12"/>
-      <c r="AJ108" s="13"/>
-      <c r="AK108" s="12"/>
-      <c r="AL108" s="13"/>
-      <c r="AM108" s="12"/>
-      <c r="AN108" s="13"/>
-    </row>
-    <row r="109" spans="1:40" s="14" customFormat="1" ht="26.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="6">
-        <f t="shared" si="3"/>
-        <v>108</v>
-      </c>
-      <c r="B109" s="7">
-        <v>64007</v>
-      </c>
-      <c r="C109" s="8" t="s">
-        <v>358</v>
-      </c>
-      <c r="D109" s="9" t="s">
-        <v>359</v>
-      </c>
-      <c r="E109" s="10" t="s">
-        <v>360</v>
-      </c>
-      <c r="F109" s="9" t="s">
-        <v>361</v>
-      </c>
-      <c r="G109" s="9" t="s">
-        <v>362</v>
-      </c>
-      <c r="H109" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="I109" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="J109" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="K109" s="9"/>
-      <c r="L109" s="10" t="s">
-        <v>125</v>
-      </c>
-      <c r="M109" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="N109" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="O109" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="P109" s="11">
-        <v>64007</v>
-      </c>
-      <c r="Q109" s="9"/>
-      <c r="R109" s="10"/>
-      <c r="S109" s="10"/>
-      <c r="T109" s="10"/>
-      <c r="U109" s="9"/>
-      <c r="V109" s="12"/>
-      <c r="W109" s="13"/>
-      <c r="X109" s="12"/>
-      <c r="Y109" s="12"/>
-      <c r="Z109" s="13"/>
-      <c r="AA109" s="12"/>
-      <c r="AB109" s="12"/>
-      <c r="AC109" s="12"/>
-      <c r="AD109" s="12"/>
-      <c r="AE109" s="12"/>
-      <c r="AF109" s="12"/>
-      <c r="AG109" s="12"/>
-      <c r="AH109" s="13"/>
-      <c r="AI109" s="12"/>
-      <c r="AJ109" s="13"/>
-      <c r="AK109" s="12"/>
-      <c r="AL109" s="13"/>
-      <c r="AM109" s="12"/>
-      <c r="AN109" s="13"/>
-    </row>
-    <row r="110" spans="1:40" s="14" customFormat="1" ht="26.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="6">
-        <f t="shared" si="3"/>
-        <v>109</v>
-      </c>
-      <c r="B110" s="7">
-        <v>64007</v>
-      </c>
-      <c r="C110" s="8" t="s">
-        <v>363</v>
-      </c>
-      <c r="D110" s="9" t="s">
-        <v>364</v>
-      </c>
-      <c r="E110" s="10" t="s">
-        <v>365</v>
-      </c>
-      <c r="F110" s="9"/>
-      <c r="G110" s="9" t="s">
-        <v>366</v>
-      </c>
-      <c r="H110" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="I110" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="J110" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="K110" s="9"/>
-      <c r="L110" s="10" t="s">
-        <v>125</v>
-      </c>
-      <c r="M110" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="N110" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="O110" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="P110" s="11">
-        <v>64007</v>
-      </c>
-      <c r="Q110" s="9"/>
-      <c r="R110" s="10"/>
-      <c r="S110" s="10"/>
-      <c r="T110" s="10"/>
-      <c r="U110" s="9"/>
-      <c r="V110" s="12"/>
-      <c r="W110" s="13"/>
-      <c r="X110" s="12"/>
-      <c r="Y110" s="12"/>
-      <c r="Z110" s="13"/>
-      <c r="AA110" s="12"/>
-      <c r="AB110" s="12"/>
-      <c r="AC110" s="12"/>
-      <c r="AD110" s="12"/>
-      <c r="AE110" s="12"/>
-      <c r="AF110" s="12"/>
-      <c r="AG110" s="12"/>
-      <c r="AH110" s="13"/>
-      <c r="AI110" s="12"/>
-      <c r="AJ110" s="13"/>
-      <c r="AK110" s="12"/>
-      <c r="AL110" s="13"/>
-      <c r="AM110" s="12"/>
-      <c r="AN110" s="13"/>
-    </row>
-    <row r="111" spans="1:40" s="14" customFormat="1" ht="26.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="6">
-        <f t="shared" si="3"/>
-        <v>110</v>
-      </c>
-      <c r="B111" s="7">
-        <v>64007</v>
-      </c>
-      <c r="C111" s="8" t="s">
-        <v>367</v>
-      </c>
-      <c r="D111" s="9" t="s">
-        <v>368</v>
-      </c>
-      <c r="E111" s="10" t="s">
-        <v>369</v>
-      </c>
-      <c r="F111" s="9" t="s">
-        <v>370</v>
-      </c>
-      <c r="G111" s="9" t="s">
-        <v>371</v>
-      </c>
-      <c r="H111" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="I111" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="J111" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="K111" s="9"/>
-      <c r="L111" s="10" t="s">
-        <v>125</v>
-      </c>
-      <c r="M111" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="N111" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="O111" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="P111" s="11">
-        <v>64007</v>
-      </c>
-      <c r="Q111" s="9"/>
-      <c r="R111" s="10"/>
-      <c r="S111" s="10"/>
-      <c r="T111" s="10"/>
-      <c r="U111" s="9"/>
-      <c r="V111" s="12"/>
-      <c r="W111" s="13"/>
-      <c r="X111" s="12"/>
-      <c r="Y111" s="12"/>
-      <c r="Z111" s="13"/>
-      <c r="AA111" s="12"/>
-      <c r="AB111" s="12"/>
-      <c r="AC111" s="12"/>
-      <c r="AD111" s="12"/>
-      <c r="AE111" s="12"/>
-      <c r="AF111" s="12"/>
-      <c r="AG111" s="12"/>
-      <c r="AH111" s="13"/>
-      <c r="AI111" s="12"/>
-      <c r="AJ111" s="13"/>
-      <c r="AK111" s="12"/>
-      <c r="AL111" s="13"/>
-      <c r="AM111" s="12"/>
-      <c r="AN111" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Resource/import.xlsx
+++ b/Resource/import.xlsx
@@ -12,14 +12,14 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$AN$105</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$AN$1</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1476" uniqueCount="348">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1781" uniqueCount="349">
   <si>
     <t>STT</t>
   </si>
@@ -1063,6 +1063,9 @@
   </si>
   <si>
     <t>741 Tạ Quang Bưu</t>
+  </si>
+  <si>
+    <t>Trung tâm y tế huyện Chư Sê</t>
   </si>
 </sst>
 </file>
@@ -1495,32 +1498,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AN105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="T7" sqref="T7"/>
+    <sheetView tabSelected="1" topLeftCell="G88" workbookViewId="0">
+      <selection activeCell="M1" sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.5703125" customWidth="1"/>
-    <col min="3" max="3" width="31.42578125" customWidth="1"/>
-    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.28515625" customWidth="1"/>
+    <col min="7" max="7" width="33.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.42578125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="44.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="26.42578125" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="44.140625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="26.42578125" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="8.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1612,8 +1615,8 @@
       <c r="A2" s="6">
         <v>1</v>
       </c>
-      <c r="B2" s="7">
-        <v>64007</v>
+      <c r="B2" s="7" t="s">
+        <v>348</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>19</v>
@@ -1650,8 +1653,8 @@
       <c r="O2" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="P2" s="11">
-        <v>64007</v>
+      <c r="P2" s="11" t="s">
+        <v>348</v>
       </c>
       <c r="Q2" s="9" t="s">
         <v>27</v>
@@ -1662,8 +1665,8 @@
       <c r="S2" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="T2" s="11">
-        <v>64007</v>
+      <c r="T2" s="11" t="s">
+        <v>348</v>
       </c>
       <c r="U2" s="9"/>
       <c r="V2" s="12"/>
@@ -1691,8 +1694,8 @@
         <f t="shared" ref="A3:A66" si="0" xml:space="preserve"> A2 + 1</f>
         <v>2</v>
       </c>
-      <c r="B3" s="7">
-        <v>64007</v>
+      <c r="B3" s="7" t="s">
+        <v>348</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>31</v>
@@ -1729,8 +1732,8 @@
       <c r="O3" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="P3" s="11">
-        <v>64007</v>
+      <c r="P3" s="11" t="s">
+        <v>348</v>
       </c>
       <c r="Q3" s="9" t="s">
         <v>36</v>
@@ -1741,8 +1744,8 @@
       <c r="S3" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="T3" s="11">
-        <v>64007</v>
+      <c r="T3" s="11" t="s">
+        <v>348</v>
       </c>
       <c r="U3" s="9"/>
       <c r="V3" s="12"/>
@@ -1770,8 +1773,8 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B4" s="7">
-        <v>64007</v>
+      <c r="B4" s="7" t="s">
+        <v>348</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>31</v>
@@ -1808,8 +1811,8 @@
       <c r="O4" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="P4" s="11">
-        <v>64007</v>
+      <c r="P4" s="11" t="s">
+        <v>348</v>
       </c>
       <c r="Q4" s="9" t="s">
         <v>36</v>
@@ -1820,8 +1823,8 @@
       <c r="S4" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="T4" s="11">
-        <v>64007</v>
+      <c r="T4" s="11" t="s">
+        <v>348</v>
       </c>
       <c r="U4" s="9"/>
       <c r="V4" s="12"/>
@@ -1849,8 +1852,8 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B5" s="7">
-        <v>64007</v>
+      <c r="B5" s="7" t="s">
+        <v>348</v>
       </c>
       <c r="C5" s="8" t="s">
         <v>41</v>
@@ -1887,8 +1890,8 @@
       <c r="O5" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="P5" s="11">
-        <v>64007</v>
+      <c r="P5" s="11" t="s">
+        <v>348</v>
       </c>
       <c r="Q5" s="9" t="s">
         <v>27</v>
@@ -1899,8 +1902,8 @@
       <c r="S5" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="T5" s="11">
-        <v>64007</v>
+      <c r="T5" s="11" t="s">
+        <v>348</v>
       </c>
       <c r="U5" s="9"/>
       <c r="V5" s="12"/>
@@ -1928,8 +1931,8 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B6" s="7">
-        <v>64007</v>
+      <c r="B6" s="7" t="s">
+        <v>348</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>52</v>
@@ -1966,8 +1969,8 @@
       <c r="O6" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="P6" s="11">
-        <v>64007</v>
+      <c r="P6" s="11" t="s">
+        <v>348</v>
       </c>
       <c r="Q6" s="9" t="s">
         <v>36</v>
@@ -1978,8 +1981,8 @@
       <c r="S6" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="T6" s="11">
-        <v>64007</v>
+      <c r="T6" s="11" t="s">
+        <v>348</v>
       </c>
       <c r="U6" s="9"/>
       <c r="V6" s="12"/>
@@ -2007,8 +2010,8 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B7" s="7">
-        <v>64007</v>
+      <c r="B7" s="7" t="s">
+        <v>348</v>
       </c>
       <c r="C7" s="8" t="s">
         <v>57</v>
@@ -2047,8 +2050,8 @@
       <c r="O7" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="P7" s="11">
-        <v>64007</v>
+      <c r="P7" s="11" t="s">
+        <v>348</v>
       </c>
       <c r="Q7" s="9" t="s">
         <v>62</v>
@@ -2059,8 +2062,8 @@
       <c r="S7" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="T7" s="11">
-        <v>64007</v>
+      <c r="T7" s="11" t="s">
+        <v>348</v>
       </c>
       <c r="U7" s="9"/>
       <c r="V7" s="12"/>
@@ -2088,8 +2091,8 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B8" s="7">
-        <v>64007</v>
+      <c r="B8" s="7" t="s">
+        <v>348</v>
       </c>
       <c r="C8" s="8" t="s">
         <v>66</v>
@@ -2128,8 +2131,8 @@
       <c r="O8" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="P8" s="11">
-        <v>64007</v>
+      <c r="P8" s="11" t="s">
+        <v>348</v>
       </c>
       <c r="Q8" s="9" t="s">
         <v>62</v>
@@ -2140,8 +2143,8 @@
       <c r="S8" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="T8" s="11">
-        <v>64007</v>
+      <c r="T8" s="11" t="s">
+        <v>348</v>
       </c>
       <c r="U8" s="9"/>
       <c r="V8" s="12"/>
@@ -2169,8 +2172,8 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B9" s="7">
-        <v>64007</v>
+      <c r="B9" s="7" t="s">
+        <v>348</v>
       </c>
       <c r="C9" s="8" t="s">
         <v>74</v>
@@ -2209,8 +2212,8 @@
       <c r="O9" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="P9" s="11">
-        <v>64007</v>
+      <c r="P9" s="11" t="s">
+        <v>348</v>
       </c>
       <c r="Q9" s="9" t="s">
         <v>62</v>
@@ -2221,8 +2224,8 @@
       <c r="S9" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="T9" s="11">
-        <v>64007</v>
+      <c r="T9" s="11" t="s">
+        <v>348</v>
       </c>
       <c r="U9" s="9"/>
       <c r="V9" s="12"/>
@@ -2250,8 +2253,8 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B10" s="7">
-        <v>64007</v>
+      <c r="B10" s="7" t="s">
+        <v>348</v>
       </c>
       <c r="C10" s="8" t="s">
         <v>80</v>
@@ -2290,8 +2293,8 @@
       <c r="O10" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="P10" s="11">
-        <v>64007</v>
+      <c r="P10" s="11" t="s">
+        <v>348</v>
       </c>
       <c r="Q10" s="9" t="s">
         <v>62</v>
@@ -2302,8 +2305,8 @@
       <c r="S10" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="T10" s="11">
-        <v>64007</v>
+      <c r="T10" s="11" t="s">
+        <v>348</v>
       </c>
       <c r="U10" s="9"/>
       <c r="V10" s="12"/>
@@ -2331,8 +2334,8 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B11" s="7">
-        <v>64007</v>
+      <c r="B11" s="7" t="s">
+        <v>348</v>
       </c>
       <c r="C11" s="8" t="s">
         <v>84</v>
@@ -2371,8 +2374,8 @@
       <c r="O11" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="P11" s="11">
-        <v>64007</v>
+      <c r="P11" s="11" t="s">
+        <v>348</v>
       </c>
       <c r="Q11" s="9" t="s">
         <v>62</v>
@@ -2383,8 +2386,8 @@
       <c r="S11" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="T11" s="11">
-        <v>64007</v>
+      <c r="T11" s="11" t="s">
+        <v>348</v>
       </c>
       <c r="U11" s="9"/>
       <c r="V11" s="12"/>
@@ -2412,8 +2415,8 @@
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B12" s="7">
-        <v>64007</v>
+      <c r="B12" s="7" t="s">
+        <v>348</v>
       </c>
       <c r="C12" s="8" t="s">
         <v>88</v>
@@ -2450,8 +2453,8 @@
       <c r="O12" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="P12" s="11">
-        <v>64007</v>
+      <c r="P12" s="11" t="s">
+        <v>348</v>
       </c>
       <c r="Q12" s="9" t="s">
         <v>36</v>
@@ -2462,8 +2465,8 @@
       <c r="S12" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="T12" s="11">
-        <v>64007</v>
+      <c r="T12" s="11" t="s">
+        <v>348</v>
       </c>
       <c r="U12" s="9"/>
       <c r="V12" s="12"/>
@@ -2491,8 +2494,8 @@
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B13" s="7">
-        <v>64007</v>
+      <c r="B13" s="7" t="s">
+        <v>348</v>
       </c>
       <c r="C13" s="8" t="s">
         <v>95</v>
@@ -2531,8 +2534,8 @@
       <c r="O13" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="P13" s="11">
-        <v>64007</v>
+      <c r="P13" s="11" t="s">
+        <v>348</v>
       </c>
       <c r="Q13" s="9" t="s">
         <v>36</v>
@@ -2543,8 +2546,8 @@
       <c r="S13" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="T13" s="11">
-        <v>64007</v>
+      <c r="T13" s="11" t="s">
+        <v>348</v>
       </c>
       <c r="U13" s="9"/>
       <c r="V13" s="12"/>
@@ -2572,8 +2575,8 @@
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B14" s="7">
-        <v>64007</v>
+      <c r="B14" s="7" t="s">
+        <v>348</v>
       </c>
       <c r="C14" s="8" t="s">
         <v>103</v>
@@ -2612,8 +2615,8 @@
       <c r="O14" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="P14" s="11">
-        <v>64007</v>
+      <c r="P14" s="11" t="s">
+        <v>348</v>
       </c>
       <c r="Q14" s="9" t="s">
         <v>36</v>
@@ -2624,8 +2627,8 @@
       <c r="S14" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="T14" s="11">
-        <v>64007</v>
+      <c r="T14" s="11" t="s">
+        <v>348</v>
       </c>
       <c r="U14" s="9"/>
       <c r="V14" s="12"/>
@@ -2653,8 +2656,8 @@
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B15" s="7">
-        <v>64007</v>
+      <c r="B15" s="7" t="s">
+        <v>348</v>
       </c>
       <c r="C15" s="8" t="s">
         <v>108</v>
@@ -2691,8 +2694,8 @@
         <v>114</v>
       </c>
       <c r="O15" s="9"/>
-      <c r="P15" s="11">
-        <v>64007</v>
+      <c r="P15" s="11" t="s">
+        <v>348</v>
       </c>
       <c r="Q15" s="9"/>
       <c r="R15" s="10"/>
@@ -2724,8 +2727,8 @@
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B16" s="7">
-        <v>64007</v>
+      <c r="B16" s="7" t="s">
+        <v>348</v>
       </c>
       <c r="C16" s="8" t="s">
         <v>115</v>
@@ -2762,8 +2765,8 @@
       <c r="O16" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="P16" s="11">
-        <v>64007</v>
+      <c r="P16" s="11" t="s">
+        <v>348</v>
       </c>
       <c r="Q16" s="9" t="s">
         <v>36</v>
@@ -2774,8 +2777,8 @@
       <c r="S16" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="T16" s="11">
-        <v>64007</v>
+      <c r="T16" s="11" t="s">
+        <v>348</v>
       </c>
       <c r="U16" s="9"/>
       <c r="V16" s="12"/>
@@ -2803,8 +2806,8 @@
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B17" s="7">
-        <v>64007</v>
+      <c r="B17" s="7" t="s">
+        <v>348</v>
       </c>
       <c r="C17" s="8" t="s">
         <v>121</v>
@@ -2841,8 +2844,8 @@
       <c r="O17" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="P17" s="11">
-        <v>64007</v>
+      <c r="P17" s="11" t="s">
+        <v>348</v>
       </c>
       <c r="Q17" s="9" t="s">
         <v>27</v>
@@ -2853,8 +2856,8 @@
       <c r="S17" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="T17" s="11">
-        <v>64007</v>
+      <c r="T17" s="11" t="s">
+        <v>348</v>
       </c>
       <c r="U17" s="9"/>
       <c r="V17" s="12"/>
@@ -2882,8 +2885,8 @@
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B18" s="7">
-        <v>64007</v>
+      <c r="B18" s="7" t="s">
+        <v>348</v>
       </c>
       <c r="C18" s="8" t="s">
         <v>121</v>
@@ -2920,8 +2923,8 @@
       <c r="O18" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="P18" s="11">
-        <v>64007</v>
+      <c r="P18" s="11" t="s">
+        <v>348</v>
       </c>
       <c r="Q18" s="9" t="s">
         <v>27</v>
@@ -2932,8 +2935,8 @@
       <c r="S18" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="T18" s="11">
-        <v>64007</v>
+      <c r="T18" s="11" t="s">
+        <v>348</v>
       </c>
       <c r="U18" s="9"/>
       <c r="V18" s="12"/>
@@ -2961,8 +2964,8 @@
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B19" s="7">
-        <v>64007</v>
+      <c r="B19" s="7" t="s">
+        <v>348</v>
       </c>
       <c r="C19" s="8" t="s">
         <v>126</v>
@@ -2999,8 +3002,8 @@
       <c r="O19" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="P19" s="11">
-        <v>64007</v>
+      <c r="P19" s="11" t="s">
+        <v>348</v>
       </c>
       <c r="Q19" s="9" t="s">
         <v>27</v>
@@ -3011,8 +3014,8 @@
       <c r="S19" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="T19" s="11">
-        <v>64007</v>
+      <c r="T19" s="11" t="s">
+        <v>348</v>
       </c>
       <c r="U19" s="9"/>
       <c r="V19" s="12"/>
@@ -3040,8 +3043,8 @@
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B20" s="7">
-        <v>64007</v>
+      <c r="B20" s="7" t="s">
+        <v>348</v>
       </c>
       <c r="C20" s="8" t="s">
         <v>126</v>
@@ -3078,8 +3081,8 @@
       <c r="O20" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="P20" s="11">
-        <v>64007</v>
+      <c r="P20" s="11" t="s">
+        <v>348</v>
       </c>
       <c r="Q20" s="9" t="s">
         <v>27</v>
@@ -3090,8 +3093,8 @@
       <c r="S20" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="T20" s="11">
-        <v>64007</v>
+      <c r="T20" s="11" t="s">
+        <v>348</v>
       </c>
       <c r="U20" s="9"/>
       <c r="V20" s="12"/>
@@ -3119,8 +3122,8 @@
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="B21" s="7">
-        <v>64007</v>
+      <c r="B21" s="7" t="s">
+        <v>348</v>
       </c>
       <c r="C21" s="8" t="s">
         <v>130</v>
@@ -3157,8 +3160,8 @@
       <c r="O21" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="P21" s="11">
-        <v>64007</v>
+      <c r="P21" s="11" t="s">
+        <v>348</v>
       </c>
       <c r="Q21" s="9" t="s">
         <v>27</v>
@@ -3169,8 +3172,8 @@
       <c r="S21" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="T21" s="11">
-        <v>64007</v>
+      <c r="T21" s="11" t="s">
+        <v>348</v>
       </c>
       <c r="U21" s="9"/>
       <c r="V21" s="12"/>
@@ -3198,8 +3201,8 @@
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="B22" s="7">
-        <v>64007</v>
+      <c r="B22" s="7" t="s">
+        <v>348</v>
       </c>
       <c r="C22" s="8" t="s">
         <v>130</v>
@@ -3236,8 +3239,8 @@
       <c r="O22" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="P22" s="11">
-        <v>64007</v>
+      <c r="P22" s="11" t="s">
+        <v>348</v>
       </c>
       <c r="Q22" s="9" t="s">
         <v>27</v>
@@ -3248,8 +3251,8 @@
       <c r="S22" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="T22" s="11">
-        <v>64007</v>
+      <c r="T22" s="11" t="s">
+        <v>348</v>
       </c>
       <c r="U22" s="9"/>
       <c r="V22" s="12"/>
@@ -3277,8 +3280,8 @@
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="B23" s="7">
-        <v>64007</v>
+      <c r="B23" s="7" t="s">
+        <v>348</v>
       </c>
       <c r="C23" s="8" t="s">
         <v>134</v>
@@ -3315,8 +3318,8 @@
       <c r="O23" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="P23" s="11">
-        <v>64007</v>
+      <c r="P23" s="11" t="s">
+        <v>348</v>
       </c>
       <c r="Q23" s="9" t="s">
         <v>27</v>
@@ -3327,8 +3330,8 @@
       <c r="S23" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="T23" s="11">
-        <v>64007</v>
+      <c r="T23" s="11" t="s">
+        <v>348</v>
       </c>
       <c r="U23" s="9"/>
       <c r="V23" s="12"/>
@@ -3356,8 +3359,8 @@
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="B24" s="7">
-        <v>64007</v>
+      <c r="B24" s="7" t="s">
+        <v>348</v>
       </c>
       <c r="C24" s="8" t="s">
         <v>134</v>
@@ -3394,8 +3397,8 @@
       <c r="O24" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="P24" s="11">
-        <v>64007</v>
+      <c r="P24" s="11" t="s">
+        <v>348</v>
       </c>
       <c r="Q24" s="9" t="s">
         <v>27</v>
@@ -3406,8 +3409,8 @@
       <c r="S24" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="T24" s="11">
-        <v>64007</v>
+      <c r="T24" s="11" t="s">
+        <v>348</v>
       </c>
       <c r="U24" s="9"/>
       <c r="V24" s="12"/>
@@ -3435,8 +3438,8 @@
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="B25" s="7">
-        <v>64007</v>
+      <c r="B25" s="7" t="s">
+        <v>348</v>
       </c>
       <c r="C25" s="8" t="s">
         <v>139</v>
@@ -3473,8 +3476,8 @@
       <c r="O25" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="P25" s="11">
-        <v>64007</v>
+      <c r="P25" s="11" t="s">
+        <v>348</v>
       </c>
       <c r="Q25" s="9" t="s">
         <v>27</v>
@@ -3485,8 +3488,8 @@
       <c r="S25" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="T25" s="11">
-        <v>64007</v>
+      <c r="T25" s="11" t="s">
+        <v>348</v>
       </c>
       <c r="U25" s="9"/>
       <c r="V25" s="12"/>
@@ -3514,8 +3517,8 @@
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="B26" s="7">
-        <v>64007</v>
+      <c r="B26" s="7" t="s">
+        <v>348</v>
       </c>
       <c r="C26" s="8" t="s">
         <v>139</v>
@@ -3552,8 +3555,8 @@
       <c r="O26" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="P26" s="11">
-        <v>64007</v>
+      <c r="P26" s="11" t="s">
+        <v>348</v>
       </c>
       <c r="Q26" s="9" t="s">
         <v>27</v>
@@ -3564,8 +3567,8 @@
       <c r="S26" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="T26" s="11">
-        <v>64007</v>
+      <c r="T26" s="11" t="s">
+        <v>348</v>
       </c>
       <c r="U26" s="9"/>
       <c r="V26" s="12"/>
@@ -3593,8 +3596,8 @@
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="B27" s="7">
-        <v>64007</v>
+      <c r="B27" s="7" t="s">
+        <v>348</v>
       </c>
       <c r="C27" s="8" t="s">
         <v>144</v>
@@ -3631,8 +3634,8 @@
       <c r="O27" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="P27" s="11">
-        <v>64007</v>
+      <c r="P27" s="11" t="s">
+        <v>348</v>
       </c>
       <c r="Q27" s="9" t="s">
         <v>27</v>
@@ -3643,8 +3646,8 @@
       <c r="S27" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="T27" s="11">
-        <v>64007</v>
+      <c r="T27" s="11" t="s">
+        <v>348</v>
       </c>
       <c r="U27" s="9"/>
       <c r="V27" s="12"/>
@@ -3672,8 +3675,8 @@
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="B28" s="7">
-        <v>64007</v>
+      <c r="B28" s="7" t="s">
+        <v>348</v>
       </c>
       <c r="C28" s="8" t="s">
         <v>144</v>
@@ -3710,8 +3713,8 @@
       <c r="O28" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="P28" s="11">
-        <v>64007</v>
+      <c r="P28" s="11" t="s">
+        <v>348</v>
       </c>
       <c r="Q28" s="9" t="s">
         <v>27</v>
@@ -3722,8 +3725,8 @@
       <c r="S28" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="T28" s="11">
-        <v>64007</v>
+      <c r="T28" s="11" t="s">
+        <v>348</v>
       </c>
       <c r="U28" s="9"/>
       <c r="V28" s="12"/>
@@ -3751,8 +3754,8 @@
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="B29" s="7">
-        <v>64007</v>
+      <c r="B29" s="7" t="s">
+        <v>348</v>
       </c>
       <c r="C29" s="8" t="s">
         <v>148</v>
@@ -3789,8 +3792,8 @@
       <c r="O29" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="P29" s="11">
-        <v>64007</v>
+      <c r="P29" s="11" t="s">
+        <v>348</v>
       </c>
       <c r="Q29" s="9" t="s">
         <v>27</v>
@@ -3801,8 +3804,8 @@
       <c r="S29" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="T29" s="11">
-        <v>64007</v>
+      <c r="T29" s="11" t="s">
+        <v>348</v>
       </c>
       <c r="U29" s="9"/>
       <c r="V29" s="12"/>
@@ -3830,8 +3833,8 @@
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="B30" s="7">
-        <v>64007</v>
+      <c r="B30" s="7" t="s">
+        <v>348</v>
       </c>
       <c r="C30" s="8" t="s">
         <v>148</v>
@@ -3868,8 +3871,8 @@
       <c r="O30" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="P30" s="11">
-        <v>64007</v>
+      <c r="P30" s="11" t="s">
+        <v>348</v>
       </c>
       <c r="Q30" s="9" t="s">
         <v>27</v>
@@ -3880,8 +3883,8 @@
       <c r="S30" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="T30" s="11">
-        <v>64007</v>
+      <c r="T30" s="11" t="s">
+        <v>348</v>
       </c>
       <c r="U30" s="9"/>
       <c r="V30" s="12"/>
@@ -3909,8 +3912,8 @@
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="B31" s="7">
-        <v>64007</v>
+      <c r="B31" s="7" t="s">
+        <v>348</v>
       </c>
       <c r="C31" s="8" t="s">
         <v>152</v>
@@ -3947,8 +3950,8 @@
       <c r="O31" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="P31" s="11">
-        <v>64007</v>
+      <c r="P31" s="11" t="s">
+        <v>348</v>
       </c>
       <c r="Q31" s="9" t="s">
         <v>27</v>
@@ -3959,8 +3962,8 @@
       <c r="S31" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="T31" s="11">
-        <v>64007</v>
+      <c r="T31" s="11" t="s">
+        <v>348</v>
       </c>
       <c r="U31" s="9"/>
       <c r="V31" s="12"/>
@@ -3988,8 +3991,8 @@
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="B32" s="7">
-        <v>64007</v>
+      <c r="B32" s="7" t="s">
+        <v>348</v>
       </c>
       <c r="C32" s="8" t="s">
         <v>152</v>
@@ -4026,8 +4029,8 @@
       <c r="O32" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="P32" s="11">
-        <v>64007</v>
+      <c r="P32" s="11" t="s">
+        <v>348</v>
       </c>
       <c r="Q32" s="9" t="s">
         <v>27</v>
@@ -4038,8 +4041,8 @@
       <c r="S32" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="T32" s="11">
-        <v>64007</v>
+      <c r="T32" s="11" t="s">
+        <v>348</v>
       </c>
       <c r="U32" s="9"/>
       <c r="V32" s="12"/>
@@ -4067,8 +4070,8 @@
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="B33" s="7">
-        <v>64007</v>
+      <c r="B33" s="7" t="s">
+        <v>348</v>
       </c>
       <c r="C33" s="8" t="s">
         <v>156</v>
@@ -4105,8 +4108,8 @@
       <c r="O33" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="P33" s="11">
-        <v>64007</v>
+      <c r="P33" s="11" t="s">
+        <v>348</v>
       </c>
       <c r="Q33" s="9" t="s">
         <v>27</v>
@@ -4117,8 +4120,8 @@
       <c r="S33" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="T33" s="11">
-        <v>64007</v>
+      <c r="T33" s="11" t="s">
+        <v>348</v>
       </c>
       <c r="U33" s="9"/>
       <c r="V33" s="12"/>
@@ -4146,8 +4149,8 @@
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="B34" s="7">
-        <v>64007</v>
+      <c r="B34" s="7" t="s">
+        <v>348</v>
       </c>
       <c r="C34" s="8" t="s">
         <v>156</v>
@@ -4184,8 +4187,8 @@
       <c r="O34" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="P34" s="11">
-        <v>64007</v>
+      <c r="P34" s="11" t="s">
+        <v>348</v>
       </c>
       <c r="Q34" s="9" t="s">
         <v>27</v>
@@ -4196,8 +4199,8 @@
       <c r="S34" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="T34" s="11">
-        <v>64007</v>
+      <c r="T34" s="11" t="s">
+        <v>348</v>
       </c>
       <c r="U34" s="9"/>
       <c r="V34" s="12"/>
@@ -4225,8 +4228,8 @@
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="B35" s="7">
-        <v>64007</v>
+      <c r="B35" s="7" t="s">
+        <v>348</v>
       </c>
       <c r="C35" s="8" t="s">
         <v>160</v>
@@ -4263,8 +4266,8 @@
       <c r="O35" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="P35" s="11">
-        <v>64007</v>
+      <c r="P35" s="11" t="s">
+        <v>348</v>
       </c>
       <c r="Q35" s="9" t="s">
         <v>27</v>
@@ -4275,8 +4278,8 @@
       <c r="S35" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="T35" s="11">
-        <v>64007</v>
+      <c r="T35" s="11" t="s">
+        <v>348</v>
       </c>
       <c r="U35" s="9"/>
       <c r="V35" s="12"/>
@@ -4304,8 +4307,8 @@
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="B36" s="7">
-        <v>64007</v>
+      <c r="B36" s="7" t="s">
+        <v>348</v>
       </c>
       <c r="C36" s="8" t="s">
         <v>160</v>
@@ -4342,8 +4345,8 @@
       <c r="O36" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="P36" s="11">
-        <v>64007</v>
+      <c r="P36" s="11" t="s">
+        <v>348</v>
       </c>
       <c r="Q36" s="9" t="s">
         <v>27</v>
@@ -4354,8 +4357,8 @@
       <c r="S36" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="T36" s="11">
-        <v>64007</v>
+      <c r="T36" s="11" t="s">
+        <v>348</v>
       </c>
       <c r="U36" s="9"/>
       <c r="V36" s="12"/>
@@ -4383,8 +4386,8 @@
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="B37" s="7">
-        <v>64007</v>
+      <c r="B37" s="7" t="s">
+        <v>348</v>
       </c>
       <c r="C37" s="8" t="s">
         <v>165</v>
@@ -4421,8 +4424,8 @@
       <c r="O37" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="P37" s="11">
-        <v>64007</v>
+      <c r="P37" s="11" t="s">
+        <v>348</v>
       </c>
       <c r="Q37" s="9" t="s">
         <v>27</v>
@@ -4433,8 +4436,8 @@
       <c r="S37" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="T37" s="11">
-        <v>64007</v>
+      <c r="T37" s="11" t="s">
+        <v>348</v>
       </c>
       <c r="U37" s="9"/>
       <c r="V37" s="12"/>
@@ -4462,8 +4465,8 @@
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
-      <c r="B38" s="7">
-        <v>64007</v>
+      <c r="B38" s="7" t="s">
+        <v>348</v>
       </c>
       <c r="C38" s="8" t="s">
         <v>165</v>
@@ -4500,8 +4503,8 @@
       <c r="O38" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="P38" s="11">
-        <v>64007</v>
+      <c r="P38" s="11" t="s">
+        <v>348</v>
       </c>
       <c r="Q38" s="9" t="s">
         <v>27</v>
@@ -4512,8 +4515,8 @@
       <c r="S38" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="T38" s="11">
-        <v>64007</v>
+      <c r="T38" s="11" t="s">
+        <v>348</v>
       </c>
       <c r="U38" s="9"/>
       <c r="V38" s="12"/>
@@ -4541,8 +4544,8 @@
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
-      <c r="B39" s="7">
-        <v>64007</v>
+      <c r="B39" s="7" t="s">
+        <v>348</v>
       </c>
       <c r="C39" s="8" t="s">
         <v>169</v>
@@ -4579,8 +4582,8 @@
       <c r="O39" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="P39" s="11">
-        <v>64007</v>
+      <c r="P39" s="11" t="s">
+        <v>348</v>
       </c>
       <c r="Q39" s="9" t="s">
         <v>27</v>
@@ -4591,8 +4594,8 @@
       <c r="S39" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="T39" s="11">
-        <v>64007</v>
+      <c r="T39" s="11" t="s">
+        <v>348</v>
       </c>
       <c r="U39" s="9"/>
       <c r="V39" s="12"/>
@@ -4620,8 +4623,8 @@
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
-      <c r="B40" s="7">
-        <v>64007</v>
+      <c r="B40" s="7" t="s">
+        <v>348</v>
       </c>
       <c r="C40" s="8" t="s">
         <v>169</v>
@@ -4658,8 +4661,8 @@
       <c r="O40" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="P40" s="11">
-        <v>64007</v>
+      <c r="P40" s="11" t="s">
+        <v>348</v>
       </c>
       <c r="Q40" s="9" t="s">
         <v>27</v>
@@ -4670,8 +4673,8 @@
       <c r="S40" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="T40" s="11">
-        <v>64007</v>
+      <c r="T40" s="11" t="s">
+        <v>348</v>
       </c>
       <c r="U40" s="9"/>
       <c r="V40" s="12"/>
@@ -4699,8 +4702,8 @@
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="B41" s="7">
-        <v>64007</v>
+      <c r="B41" s="7" t="s">
+        <v>348</v>
       </c>
       <c r="C41" s="8" t="s">
         <v>173</v>
@@ -4737,8 +4740,8 @@
       <c r="O41" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="P41" s="11">
-        <v>64007</v>
+      <c r="P41" s="11" t="s">
+        <v>348</v>
       </c>
       <c r="Q41" s="9" t="s">
         <v>27</v>
@@ -4749,8 +4752,8 @@
       <c r="S41" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="T41" s="11">
-        <v>64007</v>
+      <c r="T41" s="11" t="s">
+        <v>348</v>
       </c>
       <c r="U41" s="9"/>
       <c r="V41" s="12"/>
@@ -4778,8 +4781,8 @@
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
-      <c r="B42" s="7">
-        <v>64007</v>
+      <c r="B42" s="7" t="s">
+        <v>348</v>
       </c>
       <c r="C42" s="8" t="s">
         <v>173</v>
@@ -4816,8 +4819,8 @@
       <c r="O42" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="P42" s="11">
-        <v>64007</v>
+      <c r="P42" s="11" t="s">
+        <v>348</v>
       </c>
       <c r="Q42" s="9" t="s">
         <v>27</v>
@@ -4828,8 +4831,8 @@
       <c r="S42" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="T42" s="11">
-        <v>64007</v>
+      <c r="T42" s="11" t="s">
+        <v>348</v>
       </c>
       <c r="U42" s="9"/>
       <c r="V42" s="12"/>
@@ -4857,8 +4860,8 @@
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
-      <c r="B43" s="7">
-        <v>64007</v>
+      <c r="B43" s="7" t="s">
+        <v>348</v>
       </c>
       <c r="C43" s="8" t="s">
         <v>178</v>
@@ -4895,8 +4898,8 @@
       <c r="O43" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="P43" s="11">
-        <v>64007</v>
+      <c r="P43" s="11" t="s">
+        <v>348</v>
       </c>
       <c r="Q43" s="9" t="s">
         <v>27</v>
@@ -4907,8 +4910,8 @@
       <c r="S43" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="T43" s="11">
-        <v>64007</v>
+      <c r="T43" s="11" t="s">
+        <v>348</v>
       </c>
       <c r="U43" s="9"/>
       <c r="V43" s="12"/>
@@ -4936,8 +4939,8 @@
         <f t="shared" si="0"/>
         <v>43</v>
       </c>
-      <c r="B44" s="7">
-        <v>64007</v>
+      <c r="B44" s="7" t="s">
+        <v>348</v>
       </c>
       <c r="C44" s="8" t="s">
         <v>178</v>
@@ -4974,8 +4977,8 @@
       <c r="O44" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="P44" s="11">
-        <v>64007</v>
+      <c r="P44" s="11" t="s">
+        <v>348</v>
       </c>
       <c r="Q44" s="9" t="s">
         <v>27</v>
@@ -4986,8 +4989,8 @@
       <c r="S44" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="T44" s="11">
-        <v>64007</v>
+      <c r="T44" s="11" t="s">
+        <v>348</v>
       </c>
       <c r="U44" s="9"/>
       <c r="V44" s="12"/>
@@ -5015,8 +5018,8 @@
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
-      <c r="B45" s="7">
-        <v>64007</v>
+      <c r="B45" s="7" t="s">
+        <v>348</v>
       </c>
       <c r="C45" s="8" t="s">
         <v>182</v>
@@ -5053,8 +5056,8 @@
       <c r="O45" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="P45" s="11">
-        <v>64007</v>
+      <c r="P45" s="11" t="s">
+        <v>348</v>
       </c>
       <c r="Q45" s="9" t="s">
         <v>27</v>
@@ -5065,8 +5068,8 @@
       <c r="S45" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="T45" s="11">
-        <v>64007</v>
+      <c r="T45" s="11" t="s">
+        <v>348</v>
       </c>
       <c r="U45" s="9"/>
       <c r="V45" s="12"/>
@@ -5094,8 +5097,8 @@
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
-      <c r="B46" s="7">
-        <v>64007</v>
+      <c r="B46" s="7" t="s">
+        <v>348</v>
       </c>
       <c r="C46" s="8" t="s">
         <v>182</v>
@@ -5132,8 +5135,8 @@
       <c r="O46" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="P46" s="11">
-        <v>64007</v>
+      <c r="P46" s="11" t="s">
+        <v>348</v>
       </c>
       <c r="Q46" s="9" t="s">
         <v>27</v>
@@ -5144,8 +5147,8 @@
       <c r="S46" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="T46" s="11">
-        <v>64007</v>
+      <c r="T46" s="11" t="s">
+        <v>348</v>
       </c>
       <c r="U46" s="9"/>
       <c r="V46" s="12"/>
@@ -5173,8 +5176,8 @@
         <f t="shared" si="0"/>
         <v>46</v>
       </c>
-      <c r="B47" s="7">
-        <v>64007</v>
+      <c r="B47" s="7" t="s">
+        <v>348</v>
       </c>
       <c r="C47" s="8" t="s">
         <v>186</v>
@@ -5211,8 +5214,8 @@
       <c r="O47" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="P47" s="11">
-        <v>64007</v>
+      <c r="P47" s="11" t="s">
+        <v>348</v>
       </c>
       <c r="Q47" s="9" t="s">
         <v>27</v>
@@ -5223,8 +5226,8 @@
       <c r="S47" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="T47" s="11">
-        <v>64007</v>
+      <c r="T47" s="11" t="s">
+        <v>348</v>
       </c>
       <c r="U47" s="9"/>
       <c r="V47" s="12"/>
@@ -5252,8 +5255,8 @@
         <f t="shared" si="0"/>
         <v>47</v>
       </c>
-      <c r="B48" s="7">
-        <v>64007</v>
+      <c r="B48" s="7" t="s">
+        <v>348</v>
       </c>
       <c r="C48" s="8" t="s">
         <v>186</v>
@@ -5290,8 +5293,8 @@
       <c r="O48" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="P48" s="11">
-        <v>64007</v>
+      <c r="P48" s="11" t="s">
+        <v>348</v>
       </c>
       <c r="Q48" s="9" t="s">
         <v>27</v>
@@ -5302,8 +5305,8 @@
       <c r="S48" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="T48" s="11">
-        <v>64007</v>
+      <c r="T48" s="11" t="s">
+        <v>348</v>
       </c>
       <c r="U48" s="9"/>
       <c r="V48" s="12"/>
@@ -5331,8 +5334,8 @@
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="B49" s="7">
-        <v>64007</v>
+      <c r="B49" s="7" t="s">
+        <v>348</v>
       </c>
       <c r="C49" s="8" t="s">
         <v>191</v>
@@ -5369,8 +5372,8 @@
       <c r="O49" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="P49" s="11">
-        <v>64007</v>
+      <c r="P49" s="11" t="s">
+        <v>348</v>
       </c>
       <c r="Q49" s="9" t="s">
         <v>27</v>
@@ -5381,8 +5384,8 @@
       <c r="S49" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="T49" s="11">
-        <v>64007</v>
+      <c r="T49" s="11" t="s">
+        <v>348</v>
       </c>
       <c r="U49" s="9"/>
       <c r="V49" s="12"/>
@@ -5410,8 +5413,8 @@
         <f t="shared" si="0"/>
         <v>49</v>
       </c>
-      <c r="B50" s="7">
-        <v>64007</v>
+      <c r="B50" s="7" t="s">
+        <v>348</v>
       </c>
       <c r="C50" s="8" t="s">
         <v>191</v>
@@ -5448,8 +5451,8 @@
       <c r="O50" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="P50" s="11">
-        <v>64007</v>
+      <c r="P50" s="11" t="s">
+        <v>348</v>
       </c>
       <c r="Q50" s="9" t="s">
         <v>27</v>
@@ -5460,8 +5463,8 @@
       <c r="S50" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="T50" s="11">
-        <v>64007</v>
+      <c r="T50" s="11" t="s">
+        <v>348</v>
       </c>
       <c r="U50" s="9"/>
       <c r="V50" s="12"/>
@@ -5489,8 +5492,8 @@
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="B51" s="7">
-        <v>64007</v>
+      <c r="B51" s="7" t="s">
+        <v>348</v>
       </c>
       <c r="C51" s="8" t="s">
         <v>195</v>
@@ -5527,8 +5530,8 @@
       <c r="O51" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="P51" s="11">
-        <v>64007</v>
+      <c r="P51" s="11" t="s">
+        <v>348</v>
       </c>
       <c r="Q51" s="9" t="s">
         <v>27</v>
@@ -5539,8 +5542,8 @@
       <c r="S51" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="T51" s="11">
-        <v>64007</v>
+      <c r="T51" s="11" t="s">
+        <v>348</v>
       </c>
       <c r="U51" s="9"/>
       <c r="V51" s="12"/>
@@ -5568,8 +5571,8 @@
         <f t="shared" si="0"/>
         <v>51</v>
       </c>
-      <c r="B52" s="7">
-        <v>64007</v>
+      <c r="B52" s="7" t="s">
+        <v>348</v>
       </c>
       <c r="C52" s="8" t="s">
         <v>195</v>
@@ -5606,8 +5609,8 @@
       <c r="O52" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="P52" s="11">
-        <v>64007</v>
+      <c r="P52" s="11" t="s">
+        <v>348</v>
       </c>
       <c r="Q52" s="9" t="s">
         <v>27</v>
@@ -5618,8 +5621,8 @@
       <c r="S52" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="T52" s="11">
-        <v>64007</v>
+      <c r="T52" s="11" t="s">
+        <v>348</v>
       </c>
       <c r="U52" s="9"/>
       <c r="V52" s="12"/>
@@ -5647,8 +5650,8 @@
         <f t="shared" si="0"/>
         <v>52</v>
       </c>
-      <c r="B53" s="7">
-        <v>64007</v>
+      <c r="B53" s="7" t="s">
+        <v>348</v>
       </c>
       <c r="C53" s="8" t="s">
         <v>200</v>
@@ -5685,8 +5688,8 @@
       <c r="O53" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="P53" s="11">
-        <v>64007</v>
+      <c r="P53" s="11" t="s">
+        <v>348</v>
       </c>
       <c r="Q53" s="9" t="s">
         <v>27</v>
@@ -5697,8 +5700,8 @@
       <c r="S53" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="T53" s="11">
-        <v>64007</v>
+      <c r="T53" s="11" t="s">
+        <v>348</v>
       </c>
       <c r="U53" s="9"/>
       <c r="V53" s="12"/>
@@ -5726,8 +5729,8 @@
         <f t="shared" si="0"/>
         <v>53</v>
       </c>
-      <c r="B54" s="7">
-        <v>64007</v>
+      <c r="B54" s="7" t="s">
+        <v>348</v>
       </c>
       <c r="C54" s="8" t="s">
         <v>200</v>
@@ -5764,8 +5767,8 @@
       <c r="O54" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="P54" s="11">
-        <v>64007</v>
+      <c r="P54" s="11" t="s">
+        <v>348</v>
       </c>
       <c r="Q54" s="9" t="s">
         <v>27</v>
@@ -5776,8 +5779,8 @@
       <c r="S54" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="T54" s="11">
-        <v>64007</v>
+      <c r="T54" s="11" t="s">
+        <v>348</v>
       </c>
       <c r="U54" s="9"/>
       <c r="V54" s="12"/>
@@ -5805,8 +5808,8 @@
         <f t="shared" si="0"/>
         <v>54</v>
       </c>
-      <c r="B55" s="7">
-        <v>64007</v>
+      <c r="B55" s="7" t="s">
+        <v>348</v>
       </c>
       <c r="C55" s="8" t="s">
         <v>204</v>
@@ -5843,8 +5846,8 @@
       <c r="O55" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="P55" s="11">
-        <v>64007</v>
+      <c r="P55" s="11" t="s">
+        <v>348</v>
       </c>
       <c r="Q55" s="9" t="s">
         <v>27</v>
@@ -5855,8 +5858,8 @@
       <c r="S55" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="T55" s="11">
-        <v>64007</v>
+      <c r="T55" s="11" t="s">
+        <v>348</v>
       </c>
       <c r="U55" s="9"/>
       <c r="V55" s="12"/>
@@ -5884,8 +5887,8 @@
         <f t="shared" si="0"/>
         <v>55</v>
       </c>
-      <c r="B56" s="7">
-        <v>64007</v>
+      <c r="B56" s="7" t="s">
+        <v>348</v>
       </c>
       <c r="C56" s="8" t="s">
         <v>204</v>
@@ -5922,8 +5925,8 @@
       <c r="O56" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="P56" s="11">
-        <v>64007</v>
+      <c r="P56" s="11" t="s">
+        <v>348</v>
       </c>
       <c r="Q56" s="9" t="s">
         <v>27</v>
@@ -5934,8 +5937,8 @@
       <c r="S56" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="T56" s="11">
-        <v>64007</v>
+      <c r="T56" s="11" t="s">
+        <v>348</v>
       </c>
       <c r="U56" s="9"/>
       <c r="V56" s="12"/>
@@ -5963,8 +5966,8 @@
         <f t="shared" si="0"/>
         <v>56</v>
       </c>
-      <c r="B57" s="7">
-        <v>64007</v>
+      <c r="B57" s="7" t="s">
+        <v>348</v>
       </c>
       <c r="C57" s="8" t="s">
         <v>208</v>
@@ -6001,8 +6004,8 @@
       <c r="O57" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="P57" s="11">
-        <v>64007</v>
+      <c r="P57" s="11" t="s">
+        <v>348</v>
       </c>
       <c r="Q57" s="9" t="s">
         <v>27</v>
@@ -6013,8 +6016,8 @@
       <c r="S57" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="T57" s="11">
-        <v>64007</v>
+      <c r="T57" s="11" t="s">
+        <v>348</v>
       </c>
       <c r="U57" s="9"/>
       <c r="V57" s="12"/>
@@ -6042,8 +6045,8 @@
         <f t="shared" si="0"/>
         <v>57</v>
       </c>
-      <c r="B58" s="7">
-        <v>64007</v>
+      <c r="B58" s="7" t="s">
+        <v>348</v>
       </c>
       <c r="C58" s="8" t="s">
         <v>208</v>
@@ -6080,8 +6083,8 @@
       <c r="O58" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="P58" s="11">
-        <v>64007</v>
+      <c r="P58" s="11" t="s">
+        <v>348</v>
       </c>
       <c r="Q58" s="9" t="s">
         <v>27</v>
@@ -6092,8 +6095,8 @@
       <c r="S58" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="T58" s="11">
-        <v>64007</v>
+      <c r="T58" s="11" t="s">
+        <v>348</v>
       </c>
       <c r="U58" s="9"/>
       <c r="V58" s="12"/>
@@ -6121,8 +6124,8 @@
         <f t="shared" si="0"/>
         <v>58</v>
       </c>
-      <c r="B59" s="7">
-        <v>64007</v>
+      <c r="B59" s="7" t="s">
+        <v>348</v>
       </c>
       <c r="C59" s="8" t="s">
         <v>212</v>
@@ -6159,8 +6162,8 @@
       <c r="O59" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="P59" s="11">
-        <v>64007</v>
+      <c r="P59" s="11" t="s">
+        <v>348</v>
       </c>
       <c r="Q59" s="9" t="s">
         <v>27</v>
@@ -6171,8 +6174,8 @@
       <c r="S59" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="T59" s="11">
-        <v>64007</v>
+      <c r="T59" s="11" t="s">
+        <v>348</v>
       </c>
       <c r="U59" s="9"/>
       <c r="V59" s="12"/>
@@ -6200,8 +6203,8 @@
         <f t="shared" si="0"/>
         <v>59</v>
       </c>
-      <c r="B60" s="7">
-        <v>64007</v>
+      <c r="B60" s="7" t="s">
+        <v>348</v>
       </c>
       <c r="C60" s="8" t="s">
         <v>212</v>
@@ -6238,8 +6241,8 @@
       <c r="O60" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="P60" s="11">
-        <v>64007</v>
+      <c r="P60" s="11" t="s">
+        <v>348</v>
       </c>
       <c r="Q60" s="9" t="s">
         <v>27</v>
@@ -6250,8 +6253,8 @@
       <c r="S60" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="T60" s="11">
-        <v>64007</v>
+      <c r="T60" s="11" t="s">
+        <v>348</v>
       </c>
       <c r="U60" s="9"/>
       <c r="V60" s="12"/>
@@ -6279,8 +6282,8 @@
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="B61" s="7">
-        <v>64007</v>
+      <c r="B61" s="7" t="s">
+        <v>348</v>
       </c>
       <c r="C61" s="8" t="s">
         <v>216</v>
@@ -6317,8 +6320,8 @@
       <c r="O61" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="P61" s="11">
-        <v>64007</v>
+      <c r="P61" s="11" t="s">
+        <v>348</v>
       </c>
       <c r="Q61" s="9" t="s">
         <v>27</v>
@@ -6329,8 +6332,8 @@
       <c r="S61" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="T61" s="11">
-        <v>64007</v>
+      <c r="T61" s="11" t="s">
+        <v>348</v>
       </c>
       <c r="U61" s="9"/>
       <c r="V61" s="12"/>
@@ -6358,8 +6361,8 @@
         <f t="shared" si="0"/>
         <v>61</v>
       </c>
-      <c r="B62" s="7">
-        <v>64007</v>
+      <c r="B62" s="7" t="s">
+        <v>348</v>
       </c>
       <c r="C62" s="8" t="s">
         <v>216</v>
@@ -6396,8 +6399,8 @@
       <c r="O62" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="P62" s="11">
-        <v>64007</v>
+      <c r="P62" s="11" t="s">
+        <v>348</v>
       </c>
       <c r="Q62" s="9" t="s">
         <v>27</v>
@@ -6408,8 +6411,8 @@
       <c r="S62" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="T62" s="11">
-        <v>64007</v>
+      <c r="T62" s="11" t="s">
+        <v>348</v>
       </c>
       <c r="U62" s="9"/>
       <c r="V62" s="12"/>
@@ -6437,8 +6440,8 @@
         <f t="shared" si="0"/>
         <v>62</v>
       </c>
-      <c r="B63" s="7">
-        <v>64007</v>
+      <c r="B63" s="7" t="s">
+        <v>348</v>
       </c>
       <c r="C63" s="8" t="s">
         <v>220</v>
@@ -6475,8 +6478,8 @@
       <c r="O63" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="P63" s="11">
-        <v>64007</v>
+      <c r="P63" s="11" t="s">
+        <v>348</v>
       </c>
       <c r="Q63" s="9" t="s">
         <v>27</v>
@@ -6487,8 +6490,8 @@
       <c r="S63" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="T63" s="11">
-        <v>64007</v>
+      <c r="T63" s="11" t="s">
+        <v>348</v>
       </c>
       <c r="U63" s="9"/>
       <c r="V63" s="12"/>
@@ -6516,8 +6519,8 @@
         <f t="shared" si="0"/>
         <v>63</v>
       </c>
-      <c r="B64" s="7">
-        <v>64007</v>
+      <c r="B64" s="7" t="s">
+        <v>348</v>
       </c>
       <c r="C64" s="8" t="s">
         <v>220</v>
@@ -6554,8 +6557,8 @@
       <c r="O64" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="P64" s="11">
-        <v>64007</v>
+      <c r="P64" s="11" t="s">
+        <v>348</v>
       </c>
       <c r="Q64" s="9" t="s">
         <v>27</v>
@@ -6566,8 +6569,8 @@
       <c r="S64" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="T64" s="11">
-        <v>64007</v>
+      <c r="T64" s="11" t="s">
+        <v>348</v>
       </c>
       <c r="U64" s="9"/>
       <c r="V64" s="12"/>
@@ -6595,8 +6598,8 @@
         <f t="shared" si="0"/>
         <v>64</v>
       </c>
-      <c r="B65" s="7">
-        <v>64007</v>
+      <c r="B65" s="7" t="s">
+        <v>348</v>
       </c>
       <c r="C65" s="8" t="s">
         <v>224</v>
@@ -6633,8 +6636,8 @@
       <c r="O65" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="P65" s="11">
-        <v>64007</v>
+      <c r="P65" s="11" t="s">
+        <v>348</v>
       </c>
       <c r="Q65" s="9" t="s">
         <v>27</v>
@@ -6645,8 +6648,8 @@
       <c r="S65" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="T65" s="11">
-        <v>64007</v>
+      <c r="T65" s="11" t="s">
+        <v>348</v>
       </c>
       <c r="U65" s="9"/>
       <c r="V65" s="12"/>
@@ -6674,8 +6677,8 @@
         <f t="shared" si="0"/>
         <v>65</v>
       </c>
-      <c r="B66" s="7">
-        <v>64007</v>
+      <c r="B66" s="7" t="s">
+        <v>348</v>
       </c>
       <c r="C66" s="8" t="s">
         <v>224</v>
@@ -6712,8 +6715,8 @@
       <c r="O66" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="P66" s="11">
-        <v>64007</v>
+      <c r="P66" s="11" t="s">
+        <v>348</v>
       </c>
       <c r="Q66" s="9" t="s">
         <v>27</v>
@@ -6724,8 +6727,8 @@
       <c r="S66" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="T66" s="11">
-        <v>64007</v>
+      <c r="T66" s="11" t="s">
+        <v>348</v>
       </c>
       <c r="U66" s="9"/>
       <c r="V66" s="12"/>
@@ -6753,8 +6756,8 @@
         <f t="shared" ref="A67:A105" si="1" xml:space="preserve"> A66 + 1</f>
         <v>66</v>
       </c>
-      <c r="B67" s="7">
-        <v>64007</v>
+      <c r="B67" s="7" t="s">
+        <v>348</v>
       </c>
       <c r="C67" s="8" t="s">
         <v>228</v>
@@ -6791,8 +6794,8 @@
       <c r="O67" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="P67" s="11">
-        <v>64007</v>
+      <c r="P67" s="11" t="s">
+        <v>348</v>
       </c>
       <c r="Q67" s="9" t="s">
         <v>27</v>
@@ -6803,8 +6806,8 @@
       <c r="S67" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="T67" s="11">
-        <v>64007</v>
+      <c r="T67" s="11" t="s">
+        <v>348</v>
       </c>
       <c r="U67" s="9"/>
       <c r="V67" s="12"/>
@@ -6832,8 +6835,8 @@
         <f t="shared" si="1"/>
         <v>67</v>
       </c>
-      <c r="B68" s="7">
-        <v>64007</v>
+      <c r="B68" s="7" t="s">
+        <v>348</v>
       </c>
       <c r="C68" s="8" t="s">
         <v>228</v>
@@ -6870,8 +6873,8 @@
       <c r="O68" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="P68" s="11">
-        <v>64007</v>
+      <c r="P68" s="11" t="s">
+        <v>348</v>
       </c>
       <c r="Q68" s="9" t="s">
         <v>27</v>
@@ -6882,8 +6885,8 @@
       <c r="S68" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="T68" s="11">
-        <v>64007</v>
+      <c r="T68" s="11" t="s">
+        <v>348</v>
       </c>
       <c r="U68" s="9"/>
       <c r="V68" s="12"/>
@@ -6911,8 +6914,8 @@
         <f t="shared" si="1"/>
         <v>68</v>
       </c>
-      <c r="B69" s="7">
-        <v>64007</v>
+      <c r="B69" s="7" t="s">
+        <v>348</v>
       </c>
       <c r="C69" s="8" t="s">
         <v>232</v>
@@ -6949,8 +6952,8 @@
       <c r="O69" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="P69" s="11">
-        <v>64007</v>
+      <c r="P69" s="11" t="s">
+        <v>348</v>
       </c>
       <c r="Q69" s="9" t="s">
         <v>27</v>
@@ -6961,8 +6964,8 @@
       <c r="S69" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="T69" s="11">
-        <v>64007</v>
+      <c r="T69" s="11" t="s">
+        <v>348</v>
       </c>
       <c r="U69" s="9"/>
       <c r="V69" s="12"/>
@@ -6990,8 +6993,8 @@
         <f t="shared" si="1"/>
         <v>69</v>
       </c>
-      <c r="B70" s="7">
-        <v>64007</v>
+      <c r="B70" s="7" t="s">
+        <v>348</v>
       </c>
       <c r="C70" s="8" t="s">
         <v>232</v>
@@ -7028,8 +7031,8 @@
       <c r="O70" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="P70" s="11">
-        <v>64007</v>
+      <c r="P70" s="11" t="s">
+        <v>348</v>
       </c>
       <c r="Q70" s="9" t="s">
         <v>27</v>
@@ -7040,8 +7043,8 @@
       <c r="S70" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="T70" s="11">
-        <v>64007</v>
+      <c r="T70" s="11" t="s">
+        <v>348</v>
       </c>
       <c r="U70" s="9"/>
       <c r="V70" s="12"/>
@@ -7069,8 +7072,8 @@
         <f t="shared" si="1"/>
         <v>70</v>
       </c>
-      <c r="B71" s="7">
-        <v>64007</v>
+      <c r="B71" s="7" t="s">
+        <v>348</v>
       </c>
       <c r="C71" s="8" t="s">
         <v>236</v>
@@ -7107,8 +7110,8 @@
       <c r="O71" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="P71" s="11">
-        <v>64007</v>
+      <c r="P71" s="11" t="s">
+        <v>348</v>
       </c>
       <c r="Q71" s="9" t="s">
         <v>27</v>
@@ -7119,8 +7122,8 @@
       <c r="S71" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="T71" s="11">
-        <v>64007</v>
+      <c r="T71" s="11" t="s">
+        <v>348</v>
       </c>
       <c r="U71" s="9"/>
       <c r="V71" s="12"/>
@@ -7148,8 +7151,8 @@
         <f t="shared" si="1"/>
         <v>71</v>
       </c>
-      <c r="B72" s="7">
-        <v>64007</v>
+      <c r="B72" s="7" t="s">
+        <v>348</v>
       </c>
       <c r="C72" s="8" t="s">
         <v>236</v>
@@ -7186,8 +7189,8 @@
       <c r="O72" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="P72" s="11">
-        <v>64007</v>
+      <c r="P72" s="11" t="s">
+        <v>348</v>
       </c>
       <c r="Q72" s="9" t="s">
         <v>27</v>
@@ -7198,8 +7201,8 @@
       <c r="S72" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="T72" s="11">
-        <v>64007</v>
+      <c r="T72" s="11" t="s">
+        <v>348</v>
       </c>
       <c r="U72" s="9"/>
       <c r="V72" s="12"/>
@@ -7227,8 +7230,8 @@
         <f t="shared" si="1"/>
         <v>72</v>
       </c>
-      <c r="B73" s="7">
-        <v>64007</v>
+      <c r="B73" s="7" t="s">
+        <v>348</v>
       </c>
       <c r="C73" s="8" t="s">
         <v>240</v>
@@ -7265,8 +7268,8 @@
       <c r="O73" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="P73" s="11">
-        <v>64007</v>
+      <c r="P73" s="11" t="s">
+        <v>348</v>
       </c>
       <c r="Q73" s="9" t="s">
         <v>27</v>
@@ -7277,8 +7280,8 @@
       <c r="S73" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="T73" s="11">
-        <v>64007</v>
+      <c r="T73" s="11" t="s">
+        <v>348</v>
       </c>
       <c r="U73" s="9"/>
       <c r="V73" s="12"/>
@@ -7306,8 +7309,8 @@
         <f t="shared" si="1"/>
         <v>73</v>
       </c>
-      <c r="B74" s="7">
-        <v>64007</v>
+      <c r="B74" s="7" t="s">
+        <v>348</v>
       </c>
       <c r="C74" s="8" t="s">
         <v>240</v>
@@ -7344,8 +7347,8 @@
       <c r="O74" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="P74" s="11">
-        <v>64007</v>
+      <c r="P74" s="11" t="s">
+        <v>348</v>
       </c>
       <c r="Q74" s="9" t="s">
         <v>27</v>
@@ -7356,8 +7359,8 @@
       <c r="S74" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="T74" s="11">
-        <v>64007</v>
+      <c r="T74" s="11" t="s">
+        <v>348</v>
       </c>
       <c r="U74" s="9"/>
       <c r="V74" s="12"/>
@@ -7385,8 +7388,8 @@
         <f t="shared" si="1"/>
         <v>74</v>
       </c>
-      <c r="B75" s="7">
-        <v>64007</v>
+      <c r="B75" s="7" t="s">
+        <v>348</v>
       </c>
       <c r="C75" s="8" t="s">
         <v>244</v>
@@ -7423,8 +7426,8 @@
       <c r="O75" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="P75" s="11">
-        <v>64007</v>
+      <c r="P75" s="11" t="s">
+        <v>348</v>
       </c>
       <c r="Q75" s="9" t="s">
         <v>27</v>
@@ -7435,8 +7438,8 @@
       <c r="S75" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="T75" s="11">
-        <v>64007</v>
+      <c r="T75" s="11" t="s">
+        <v>348</v>
       </c>
       <c r="U75" s="9"/>
       <c r="V75" s="12"/>
@@ -7464,8 +7467,8 @@
         <f t="shared" si="1"/>
         <v>75</v>
       </c>
-      <c r="B76" s="7">
-        <v>64007</v>
+      <c r="B76" s="7" t="s">
+        <v>348</v>
       </c>
       <c r="C76" s="8" t="s">
         <v>244</v>
@@ -7502,8 +7505,8 @@
       <c r="O76" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="P76" s="11">
-        <v>64007</v>
+      <c r="P76" s="11" t="s">
+        <v>348</v>
       </c>
       <c r="Q76" s="9" t="s">
         <v>27</v>
@@ -7514,8 +7517,8 @@
       <c r="S76" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="T76" s="11">
-        <v>64007</v>
+      <c r="T76" s="11" t="s">
+        <v>348</v>
       </c>
       <c r="U76" s="9"/>
       <c r="V76" s="12"/>
@@ -7543,8 +7546,8 @@
         <f t="shared" si="1"/>
         <v>76</v>
       </c>
-      <c r="B77" s="7">
-        <v>64007</v>
+      <c r="B77" s="7" t="s">
+        <v>348</v>
       </c>
       <c r="C77" s="8" t="s">
         <v>248</v>
@@ -7581,8 +7584,8 @@
       <c r="O77" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="P77" s="11">
-        <v>64007</v>
+      <c r="P77" s="11" t="s">
+        <v>348</v>
       </c>
       <c r="Q77" s="9" t="s">
         <v>27</v>
@@ -7593,8 +7596,8 @@
       <c r="S77" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="T77" s="11">
-        <v>64007</v>
+      <c r="T77" s="11" t="s">
+        <v>348</v>
       </c>
       <c r="U77" s="9"/>
       <c r="V77" s="12"/>
@@ -7622,8 +7625,8 @@
         <f t="shared" si="1"/>
         <v>77</v>
       </c>
-      <c r="B78" s="7">
-        <v>64007</v>
+      <c r="B78" s="7" t="s">
+        <v>348</v>
       </c>
       <c r="C78" s="8" t="s">
         <v>248</v>
@@ -7660,8 +7663,8 @@
       <c r="O78" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="P78" s="11">
-        <v>64007</v>
+      <c r="P78" s="11" t="s">
+        <v>348</v>
       </c>
       <c r="Q78" s="9" t="s">
         <v>27</v>
@@ -7672,8 +7675,8 @@
       <c r="S78" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="T78" s="11">
-        <v>64007</v>
+      <c r="T78" s="11" t="s">
+        <v>348</v>
       </c>
       <c r="U78" s="9"/>
       <c r="V78" s="12"/>
@@ -7701,8 +7704,8 @@
         <f t="shared" si="1"/>
         <v>78</v>
       </c>
-      <c r="B79" s="7">
-        <v>64007</v>
+      <c r="B79" s="7" t="s">
+        <v>348</v>
       </c>
       <c r="C79" s="8" t="s">
         <v>252</v>
@@ -7739,8 +7742,8 @@
       <c r="O79" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="P79" s="11">
-        <v>64007</v>
+      <c r="P79" s="11" t="s">
+        <v>348</v>
       </c>
       <c r="Q79" s="9" t="s">
         <v>27</v>
@@ -7751,8 +7754,8 @@
       <c r="S79" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="T79" s="11">
-        <v>64007</v>
+      <c r="T79" s="11" t="s">
+        <v>348</v>
       </c>
       <c r="U79" s="9"/>
       <c r="V79" s="12"/>
@@ -7780,8 +7783,8 @@
         <f t="shared" si="1"/>
         <v>79</v>
       </c>
-      <c r="B80" s="7">
-        <v>64007</v>
+      <c r="B80" s="7" t="s">
+        <v>348</v>
       </c>
       <c r="C80" s="8" t="s">
         <v>252</v>
@@ -7818,8 +7821,8 @@
       <c r="O80" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="P80" s="11">
-        <v>64007</v>
+      <c r="P80" s="11" t="s">
+        <v>348</v>
       </c>
       <c r="Q80" s="9" t="s">
         <v>27</v>
@@ -7830,8 +7833,8 @@
       <c r="S80" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="T80" s="11">
-        <v>64007</v>
+      <c r="T80" s="11" t="s">
+        <v>348</v>
       </c>
       <c r="U80" s="9"/>
       <c r="V80" s="12"/>
@@ -7859,8 +7862,8 @@
         <f t="shared" si="1"/>
         <v>80</v>
       </c>
-      <c r="B81" s="7">
-        <v>64007</v>
+      <c r="B81" s="7" t="s">
+        <v>348</v>
       </c>
       <c r="C81" s="8" t="s">
         <v>256</v>
@@ -7899,8 +7902,8 @@
       <c r="O81" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="P81" s="11">
-        <v>64007</v>
+      <c r="P81" s="11" t="s">
+        <v>348</v>
       </c>
       <c r="Q81" s="9" t="s">
         <v>27</v>
@@ -7911,8 +7914,8 @@
       <c r="S81" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="T81" s="11">
-        <v>64007</v>
+      <c r="T81" s="11" t="s">
+        <v>348</v>
       </c>
       <c r="U81" s="9"/>
       <c r="V81" s="12"/>
@@ -7940,8 +7943,8 @@
         <f t="shared" si="1"/>
         <v>81</v>
       </c>
-      <c r="B82" s="7">
-        <v>64007</v>
+      <c r="B82" s="7" t="s">
+        <v>348</v>
       </c>
       <c r="C82" s="8" t="s">
         <v>256</v>
@@ -7980,8 +7983,8 @@
       <c r="O82" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="P82" s="11">
-        <v>64007</v>
+      <c r="P82" s="11" t="s">
+        <v>348</v>
       </c>
       <c r="Q82" s="9" t="s">
         <v>27</v>
@@ -7992,8 +7995,8 @@
       <c r="S82" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="T82" s="11">
-        <v>64007</v>
+      <c r="T82" s="11" t="s">
+        <v>348</v>
       </c>
       <c r="U82" s="9"/>
       <c r="V82" s="12"/>
@@ -8021,8 +8024,8 @@
         <f t="shared" si="1"/>
         <v>82</v>
       </c>
-      <c r="B83" s="7">
-        <v>64007</v>
+      <c r="B83" s="7" t="s">
+        <v>348</v>
       </c>
       <c r="C83" s="8" t="s">
         <v>261</v>
@@ -8061,8 +8064,8 @@
       <c r="O83" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="P83" s="11">
-        <v>64007</v>
+      <c r="P83" s="11" t="s">
+        <v>348</v>
       </c>
       <c r="Q83" s="9" t="s">
         <v>27</v>
@@ -8073,8 +8076,8 @@
       <c r="S83" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="T83" s="11">
-        <v>64007</v>
+      <c r="T83" s="11" t="s">
+        <v>348</v>
       </c>
       <c r="U83" s="9"/>
       <c r="V83" s="12"/>
@@ -8102,8 +8105,8 @@
         <f t="shared" si="1"/>
         <v>83</v>
       </c>
-      <c r="B84" s="7">
-        <v>64007</v>
+      <c r="B84" s="7" t="s">
+        <v>348</v>
       </c>
       <c r="C84" s="8" t="s">
         <v>261</v>
@@ -8142,8 +8145,8 @@
       <c r="O84" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="P84" s="11">
-        <v>64007</v>
+      <c r="P84" s="11" t="s">
+        <v>348</v>
       </c>
       <c r="Q84" s="9" t="s">
         <v>27</v>
@@ -8154,8 +8157,8 @@
       <c r="S84" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="T84" s="11">
-        <v>64007</v>
+      <c r="T84" s="11" t="s">
+        <v>348</v>
       </c>
       <c r="U84" s="9"/>
       <c r="V84" s="12"/>
@@ -8183,8 +8186,8 @@
         <f t="shared" si="1"/>
         <v>84</v>
       </c>
-      <c r="B85" s="7">
-        <v>64007</v>
+      <c r="B85" s="7" t="s">
+        <v>348</v>
       </c>
       <c r="C85" s="8" t="s">
         <v>266</v>
@@ -8223,8 +8226,8 @@
       <c r="O85" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="P85" s="11">
-        <v>64007</v>
+      <c r="P85" s="11" t="s">
+        <v>348</v>
       </c>
       <c r="Q85" s="9" t="s">
         <v>27</v>
@@ -8235,8 +8238,8 @@
       <c r="S85" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="T85" s="11">
-        <v>64007</v>
+      <c r="T85" s="11" t="s">
+        <v>348</v>
       </c>
       <c r="U85" s="9"/>
       <c r="V85" s="12"/>
@@ -8264,8 +8267,8 @@
         <f t="shared" si="1"/>
         <v>85</v>
       </c>
-      <c r="B86" s="7">
-        <v>64007</v>
+      <c r="B86" s="7" t="s">
+        <v>348</v>
       </c>
       <c r="C86" s="8" t="s">
         <v>266</v>
@@ -8304,8 +8307,8 @@
       <c r="O86" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="P86" s="11">
-        <v>64007</v>
+      <c r="P86" s="11" t="s">
+        <v>348</v>
       </c>
       <c r="Q86" s="9" t="s">
         <v>27</v>
@@ -8316,8 +8319,8 @@
       <c r="S86" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="T86" s="11">
-        <v>64007</v>
+      <c r="T86" s="11" t="s">
+        <v>348</v>
       </c>
       <c r="U86" s="9"/>
       <c r="V86" s="12"/>
@@ -8345,8 +8348,8 @@
         <f t="shared" si="1"/>
         <v>86</v>
       </c>
-      <c r="B87" s="7">
-        <v>64007</v>
+      <c r="B87" s="7" t="s">
+        <v>348</v>
       </c>
       <c r="C87" s="8" t="s">
         <v>271</v>
@@ -8385,8 +8388,8 @@
       <c r="O87" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="P87" s="11">
-        <v>64007</v>
+      <c r="P87" s="11" t="s">
+        <v>348</v>
       </c>
       <c r="Q87" s="9" t="s">
         <v>27</v>
@@ -8397,8 +8400,8 @@
       <c r="S87" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="T87" s="11">
-        <v>64007</v>
+      <c r="T87" s="11" t="s">
+        <v>348</v>
       </c>
       <c r="U87" s="9"/>
       <c r="V87" s="12"/>
@@ -8426,8 +8429,8 @@
         <f t="shared" si="1"/>
         <v>87</v>
       </c>
-      <c r="B88" s="7">
-        <v>64007</v>
+      <c r="B88" s="7" t="s">
+        <v>348</v>
       </c>
       <c r="C88" s="8" t="s">
         <v>271</v>
@@ -8466,8 +8469,8 @@
       <c r="O88" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="P88" s="11">
-        <v>64007</v>
+      <c r="P88" s="11" t="s">
+        <v>348</v>
       </c>
       <c r="Q88" s="9" t="s">
         <v>27</v>
@@ -8478,8 +8481,8 @@
       <c r="S88" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="T88" s="11">
-        <v>64007</v>
+      <c r="T88" s="11" t="s">
+        <v>348</v>
       </c>
       <c r="U88" s="9"/>
       <c r="V88" s="12"/>
@@ -8507,8 +8510,8 @@
         <f t="shared" si="1"/>
         <v>88</v>
       </c>
-      <c r="B89" s="7">
-        <v>64007</v>
+      <c r="B89" s="7" t="s">
+        <v>348</v>
       </c>
       <c r="C89" s="8" t="s">
         <v>276</v>
@@ -8545,8 +8548,8 @@
       <c r="O89" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="P89" s="11">
-        <v>64007</v>
+      <c r="P89" s="11" t="s">
+        <v>348</v>
       </c>
       <c r="Q89" s="9" t="s">
         <v>27</v>
@@ -8557,8 +8560,8 @@
       <c r="S89" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="T89" s="11">
-        <v>64007</v>
+      <c r="T89" s="11" t="s">
+        <v>348</v>
       </c>
       <c r="U89" s="9"/>
       <c r="V89" s="12"/>
@@ -8586,8 +8589,8 @@
         <f t="shared" si="1"/>
         <v>89</v>
       </c>
-      <c r="B90" s="7">
-        <v>64007</v>
+      <c r="B90" s="7" t="s">
+        <v>348</v>
       </c>
       <c r="C90" s="8" t="s">
         <v>276</v>
@@ -8624,8 +8627,8 @@
       <c r="O90" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="P90" s="11">
-        <v>64007</v>
+      <c r="P90" s="11" t="s">
+        <v>348</v>
       </c>
       <c r="Q90" s="9" t="s">
         <v>27</v>
@@ -8636,8 +8639,8 @@
       <c r="S90" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="T90" s="11">
-        <v>64007</v>
+      <c r="T90" s="11" t="s">
+        <v>348</v>
       </c>
       <c r="U90" s="9"/>
       <c r="V90" s="12"/>
@@ -8665,8 +8668,8 @@
         <f t="shared" si="1"/>
         <v>90</v>
       </c>
-      <c r="B91" s="7">
-        <v>64007</v>
+      <c r="B91" s="7" t="s">
+        <v>348</v>
       </c>
       <c r="C91" s="8" t="s">
         <v>280</v>
@@ -8703,8 +8706,8 @@
       <c r="O91" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="P91" s="11">
-        <v>64007</v>
+      <c r="P91" s="11" t="s">
+        <v>348</v>
       </c>
       <c r="Q91" s="9" t="s">
         <v>27</v>
@@ -8715,8 +8718,8 @@
       <c r="S91" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="T91" s="11">
-        <v>64007</v>
+      <c r="T91" s="11" t="s">
+        <v>348</v>
       </c>
       <c r="U91" s="9"/>
       <c r="V91" s="12"/>
@@ -8744,8 +8747,8 @@
         <f t="shared" si="1"/>
         <v>91</v>
       </c>
-      <c r="B92" s="7">
-        <v>64007</v>
+      <c r="B92" s="7" t="s">
+        <v>348</v>
       </c>
       <c r="C92" s="8" t="s">
         <v>280</v>
@@ -8782,8 +8785,8 @@
       <c r="O92" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="P92" s="11">
-        <v>64007</v>
+      <c r="P92" s="11" t="s">
+        <v>348</v>
       </c>
       <c r="Q92" s="9" t="s">
         <v>27</v>
@@ -8794,8 +8797,8 @@
       <c r="S92" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="T92" s="11">
-        <v>64007</v>
+      <c r="T92" s="11" t="s">
+        <v>348</v>
       </c>
       <c r="U92" s="9"/>
       <c r="V92" s="12"/>
@@ -8823,8 +8826,8 @@
         <f t="shared" si="1"/>
         <v>92</v>
       </c>
-      <c r="B93" s="7">
-        <v>64007</v>
+      <c r="B93" s="7" t="s">
+        <v>348</v>
       </c>
       <c r="C93" s="8" t="s">
         <v>284</v>
@@ -8861,8 +8864,8 @@
       <c r="O93" s="9" t="s">
         <v>289</v>
       </c>
-      <c r="P93" s="11">
-        <v>64007</v>
+      <c r="P93" s="11" t="s">
+        <v>348</v>
       </c>
       <c r="Q93" s="9" t="s">
         <v>36</v>
@@ -8873,8 +8876,8 @@
       <c r="S93" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="T93" s="11">
-        <v>64007</v>
+      <c r="T93" s="11" t="s">
+        <v>348</v>
       </c>
       <c r="U93" s="9"/>
       <c r="V93" s="12"/>
@@ -8902,8 +8905,8 @@
         <f t="shared" si="1"/>
         <v>93</v>
       </c>
-      <c r="B94" s="7">
-        <v>64007</v>
+      <c r="B94" s="7" t="s">
+        <v>348</v>
       </c>
       <c r="C94" s="8" t="s">
         <v>284</v>
@@ -8940,8 +8943,8 @@
       <c r="O94" s="9" t="s">
         <v>289</v>
       </c>
-      <c r="P94" s="11">
-        <v>64007</v>
+      <c r="P94" s="11" t="s">
+        <v>348</v>
       </c>
       <c r="Q94" s="9" t="s">
         <v>36</v>
@@ -8952,8 +8955,8 @@
       <c r="S94" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="T94" s="11">
-        <v>64007</v>
+      <c r="T94" s="11" t="s">
+        <v>348</v>
       </c>
       <c r="U94" s="9"/>
       <c r="V94" s="12"/>
@@ -8981,8 +8984,8 @@
         <f t="shared" si="1"/>
         <v>94</v>
       </c>
-      <c r="B95" s="7">
-        <v>64007</v>
+      <c r="B95" s="7" t="s">
+        <v>348</v>
       </c>
       <c r="C95" s="8" t="s">
         <v>290</v>
@@ -9021,8 +9024,8 @@
       <c r="O95" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="P95" s="11">
-        <v>64007</v>
+      <c r="P95" s="11" t="s">
+        <v>348</v>
       </c>
       <c r="Q95" s="9" t="s">
         <v>27</v>
@@ -9033,8 +9036,8 @@
       <c r="S95" s="10" t="s">
         <v>295</v>
       </c>
-      <c r="T95" s="11">
-        <v>64007</v>
+      <c r="T95" s="11" t="s">
+        <v>348</v>
       </c>
       <c r="U95" s="9"/>
       <c r="V95" s="12"/>
@@ -9062,8 +9065,8 @@
         <f t="shared" si="1"/>
         <v>95</v>
       </c>
-      <c r="B96" s="7">
-        <v>64007</v>
+      <c r="B96" s="7" t="s">
+        <v>348</v>
       </c>
       <c r="C96" s="8" t="s">
         <v>296</v>
@@ -9102,8 +9105,8 @@
       <c r="O96" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="P96" s="11">
-        <v>64007</v>
+      <c r="P96" s="11" t="s">
+        <v>348</v>
       </c>
       <c r="Q96" s="9" t="s">
         <v>27</v>
@@ -9114,8 +9117,8 @@
       <c r="S96" s="10" t="s">
         <v>295</v>
       </c>
-      <c r="T96" s="11">
-        <v>64007</v>
+      <c r="T96" s="11" t="s">
+        <v>348</v>
       </c>
       <c r="U96" s="9"/>
       <c r="V96" s="12"/>
@@ -9143,8 +9146,8 @@
         <f t="shared" si="1"/>
         <v>96</v>
       </c>
-      <c r="B97" s="7">
-        <v>64007</v>
+      <c r="B97" s="7" t="s">
+        <v>348</v>
       </c>
       <c r="C97" s="8" t="s">
         <v>300</v>
@@ -9181,8 +9184,8 @@
       <c r="O97" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="P97" s="11">
-        <v>64007</v>
+      <c r="P97" s="11" t="s">
+        <v>348</v>
       </c>
       <c r="Q97" s="9" t="s">
         <v>36</v>
@@ -9193,8 +9196,8 @@
       <c r="S97" s="10" t="s">
         <v>306</v>
       </c>
-      <c r="T97" s="11">
-        <v>64007</v>
+      <c r="T97" s="11" t="s">
+        <v>348</v>
       </c>
       <c r="U97" s="9"/>
       <c r="V97" s="12"/>
@@ -9222,8 +9225,8 @@
         <f t="shared" si="1"/>
         <v>97</v>
       </c>
-      <c r="B98" s="7">
-        <v>64007</v>
+      <c r="B98" s="7" t="s">
+        <v>348</v>
       </c>
       <c r="C98" s="8" t="s">
         <v>307</v>
@@ -9260,8 +9263,8 @@
       <c r="O98" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="P98" s="11">
-        <v>64007</v>
+      <c r="P98" s="11" t="s">
+        <v>348</v>
       </c>
       <c r="Q98" s="9" t="s">
         <v>36</v>
@@ -9272,8 +9275,8 @@
       <c r="S98" s="10" t="s">
         <v>312</v>
       </c>
-      <c r="T98" s="11">
-        <v>64007</v>
+      <c r="T98" s="11" t="s">
+        <v>348</v>
       </c>
       <c r="U98" s="9"/>
       <c r="V98" s="12"/>
@@ -9301,8 +9304,8 @@
         <f t="shared" si="1"/>
         <v>98</v>
       </c>
-      <c r="B99" s="7">
-        <v>64007</v>
+      <c r="B99" s="7" t="s">
+        <v>348</v>
       </c>
       <c r="C99" s="8" t="s">
         <v>313</v>
@@ -9339,8 +9342,8 @@
       <c r="O99" s="9" t="s">
         <v>289</v>
       </c>
-      <c r="P99" s="11">
-        <v>64007</v>
+      <c r="P99" s="11" t="s">
+        <v>348</v>
       </c>
       <c r="Q99" s="9" t="s">
         <v>36</v>
@@ -9351,8 +9354,8 @@
       <c r="S99" s="10" t="s">
         <v>319</v>
       </c>
-      <c r="T99" s="11">
-        <v>64007</v>
+      <c r="T99" s="11" t="s">
+        <v>348</v>
       </c>
       <c r="U99" s="9"/>
       <c r="V99" s="12"/>
@@ -9380,8 +9383,8 @@
         <f t="shared" si="1"/>
         <v>99</v>
       </c>
-      <c r="B100" s="7">
-        <v>64007</v>
+      <c r="B100" s="7" t="s">
+        <v>348</v>
       </c>
       <c r="C100" s="8" t="s">
         <v>320</v>
@@ -9418,8 +9421,8 @@
       <c r="O100" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="P100" s="11">
-        <v>64007</v>
+      <c r="P100" s="11" t="s">
+        <v>348</v>
       </c>
       <c r="Q100" s="9"/>
       <c r="R100" s="10"/>
@@ -9451,8 +9454,8 @@
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
-      <c r="B101" s="7">
-        <v>64007</v>
+      <c r="B101" s="7" t="s">
+        <v>348</v>
       </c>
       <c r="C101" s="8" t="s">
         <v>324</v>
@@ -9489,8 +9492,8 @@
       <c r="O101" s="9" t="s">
         <v>328</v>
       </c>
-      <c r="P101" s="11">
-        <v>64007</v>
+      <c r="P101" s="11" t="s">
+        <v>348</v>
       </c>
       <c r="Q101" s="9"/>
       <c r="R101" s="10"/>
@@ -9522,8 +9525,8 @@
         <f t="shared" si="1"/>
         <v>101</v>
       </c>
-      <c r="B102" s="7">
-        <v>64007</v>
+      <c r="B102" s="7" t="s">
+        <v>348</v>
       </c>
       <c r="C102" s="8" t="s">
         <v>329</v>
@@ -9562,8 +9565,8 @@
       <c r="O102" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="P102" s="11">
-        <v>64007</v>
+      <c r="P102" s="11" t="s">
+        <v>348</v>
       </c>
       <c r="Q102" s="9"/>
       <c r="R102" s="10"/>
@@ -9595,8 +9598,8 @@
         <f t="shared" si="1"/>
         <v>102</v>
       </c>
-      <c r="B103" s="7">
-        <v>64007</v>
+      <c r="B103" s="7" t="s">
+        <v>348</v>
       </c>
       <c r="C103" s="8" t="s">
         <v>334</v>
@@ -9635,8 +9638,8 @@
       <c r="O103" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="P103" s="11">
-        <v>64007</v>
+      <c r="P103" s="11" t="s">
+        <v>348</v>
       </c>
       <c r="Q103" s="9"/>
       <c r="R103" s="10"/>
@@ -9668,8 +9671,8 @@
         <f t="shared" si="1"/>
         <v>103</v>
       </c>
-      <c r="B104" s="7">
-        <v>64007</v>
+      <c r="B104" s="7" t="s">
+        <v>348</v>
       </c>
       <c r="C104" s="8" t="s">
         <v>339</v>
@@ -9706,8 +9709,8 @@
       <c r="O104" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="P104" s="11">
-        <v>64007</v>
+      <c r="P104" s="11" t="s">
+        <v>348</v>
       </c>
       <c r="Q104" s="9"/>
       <c r="R104" s="10"/>
@@ -9739,8 +9742,8 @@
         <f t="shared" si="1"/>
         <v>104</v>
       </c>
-      <c r="B105" s="7">
-        <v>64007</v>
+      <c r="B105" s="7" t="s">
+        <v>348</v>
       </c>
       <c r="C105" s="8" t="s">
         <v>343</v>
@@ -9779,8 +9782,8 @@
       <c r="O105" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="P105" s="11">
-        <v>64007</v>
+      <c r="P105" s="11" t="s">
+        <v>348</v>
       </c>
       <c r="Q105" s="9"/>
       <c r="R105" s="10"/>
@@ -9808,6 +9811,7 @@
       <c r="AN105" s="13"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:AN1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
